--- a/data/processed/data_wo_SErole_lj.xlsx
+++ b/data/processed/data_wo_SErole_lj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisa\Documents\GitHub\CSE-review\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D85C5BC-2671-4958-A2A7-723ED57289BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA71AA2-FAF9-47E9-86B4-1FE6212949FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27960" yWindow="1425" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9479" uniqueCount="2797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9479" uniqueCount="2795">
   <si>
     <t>id</t>
   </si>
@@ -8815,9 +8815,6 @@
     <t>mastery</t>
   </si>
   <si>
-    <t>emotional arousal</t>
-  </si>
-  <si>
     <t>mastery; technology; technology</t>
   </si>
   <si>
@@ -8827,33 +8824,18 @@
     <t>technology</t>
   </si>
   <si>
-    <t>masteryy</t>
-  </si>
-  <si>
-    <t>emotional arousal; personality; social; social</t>
-  </si>
-  <si>
     <t>vicarious; demographics; demographics; mastery; personality</t>
   </si>
   <si>
     <t>mastery; vicarious</t>
   </si>
   <si>
-    <t>emotional arousal; personality; verbal persuasion</t>
-  </si>
-  <si>
     <t>demographics</t>
   </si>
   <si>
-    <t>personality; mastery</t>
-  </si>
-  <si>
     <t>personality; personality</t>
   </si>
   <si>
-    <t>emotional arousal; emotional arousal</t>
-  </si>
-  <si>
     <t>mastery; technology; social; mastery</t>
   </si>
   <si>
@@ -8866,21 +8848,12 @@
     <t>vicarious; personality</t>
   </si>
   <si>
-    <t>organization; organization</t>
-  </si>
-  <si>
     <t>personality; personality; personality; personality; personality; personality</t>
   </si>
   <si>
     <t>mastery; mastery; vicarious</t>
   </si>
   <si>
-    <t>personality; emotional arousal</t>
-  </si>
-  <si>
-    <t>emotional arousal; personality</t>
-  </si>
-  <si>
     <t>outcome_variables_theory_LJ</t>
   </si>
   <si>
@@ -8960,6 +8933,27 @@
   </si>
   <si>
     <t>behavior; behavior</t>
+  </si>
+  <si>
+    <t>other; personality; social; social</t>
+  </si>
+  <si>
+    <t>other; personality; verbal persuasion</t>
+  </si>
+  <si>
+    <t>personality; personality; personality; personality; personality; demographics; social; other; mastery</t>
+  </si>
+  <si>
+    <t>verbal persuasion; verbal persuasion; vicarious; organization</t>
+  </si>
+  <si>
+    <t>personality; organization; organization; organization; organization</t>
+  </si>
+  <si>
+    <t>personality; other</t>
+  </si>
+  <si>
+    <t>other; personality</t>
   </si>
 </sst>
 </file>
@@ -9036,7 +9030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9059,6 +9053,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -9081,80 +9079,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -10133,6 +10057,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -10190,6 +10132,62 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -10801,8 +10799,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8C8C23E-B8AC-4554-A9ED-C1B262734E5B}" name="Tabelle1" displayName="Tabelle1" ref="A1:BD187" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
-  <autoFilter ref="A1:BD187" xr:uid="{B8C8C23E-B8AC-4554-A9ED-C1B262734E5B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8C8C23E-B8AC-4554-A9ED-C1B262734E5B}" name="Tabelle1" displayName="Tabelle1" ref="A1:BD1048576" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
+  <autoFilter ref="A1:BD1048576" xr:uid="{B8C8C23E-B8AC-4554-A9ED-C1B262734E5B}"/>
   <tableColumns count="56">
     <tableColumn id="1" xr3:uid="{D02BA947-3664-4909-B808-3612C7EA1856}" name="id" dataDxfId="98"/>
     <tableColumn id="2" xr3:uid="{617FAC16-622B-484B-9C9C-1413492D1A08}" name="publication_type" dataDxfId="97"/>
@@ -10833,88 +10831,88 @@
     <tableColumn id="27" xr3:uid="{42E070B1-262D-423B-ACD6-909449A671F5}" name="reliability_other_studypaper" dataDxfId="72"/>
     <tableColumn id="28" xr3:uid="{87FF4DBF-0ABD-438C-97A8-5156E13146C3}" name="validity_information_studypaper" dataDxfId="71"/>
     <tableColumn id="29" xr3:uid="{DD2BEF4E-7541-406E-B9FF-652C420A7A4D}" name="as_outcome_variable" dataDxfId="70"/>
-    <tableColumn id="30" xr3:uid="{552BADFA-87DD-45F0-9C1E-1DC6B1B3F790}" name="cause_variables" dataDxfId="4"/>
-    <tableColumn id="31" xr3:uid="{86019C60-30AD-456F-8A43-E9ABBA2909F7}" name="cause_variables_new" dataDxfId="2"/>
-    <tableColumn id="54" xr3:uid="{45EA63F6-0511-4C4D-BCA2-576E388EE575}" name="cause_variables_theory_LJ" dataDxfId="3"/>
-    <tableColumn id="53" xr3:uid="{2893B6AE-2446-4CF2-9A5C-8C54144F447A}" name="cause_variables_theory_NB" dataDxfId="5"/>
-    <tableColumn id="52" xr3:uid="{385DAB18-8FCE-45FC-AB34-C709C73694B2}" name="cause_variables_theory" dataDxfId="69"/>
-    <tableColumn id="32" xr3:uid="{E701C720-C404-4391-B8A5-D9C68D70A2A8}" name="as_cause_variable" dataDxfId="68"/>
-    <tableColumn id="33" xr3:uid="{B9997837-7A9D-4A7C-AB55-42AABCFD811D}" name="outcome_variables" dataDxfId="67"/>
-    <tableColumn id="34" xr3:uid="{CFE1E853-EE6D-4F54-AF02-1C96FB97265D}" name="outcome_variables_new" dataDxfId="66"/>
+    <tableColumn id="30" xr3:uid="{552BADFA-87DD-45F0-9C1E-1DC6B1B3F790}" name="cause_variables" dataDxfId="69"/>
+    <tableColumn id="31" xr3:uid="{86019C60-30AD-456F-8A43-E9ABBA2909F7}" name="cause_variables_new" dataDxfId="68"/>
+    <tableColumn id="54" xr3:uid="{45EA63F6-0511-4C4D-BCA2-576E388EE575}" name="cause_variables_theory_LJ" dataDxfId="1"/>
+    <tableColumn id="53" xr3:uid="{2893B6AE-2446-4CF2-9A5C-8C54144F447A}" name="cause_variables_theory_NB" dataDxfId="67"/>
+    <tableColumn id="52" xr3:uid="{385DAB18-8FCE-45FC-AB34-C709C73694B2}" name="cause_variables_theory" dataDxfId="66"/>
+    <tableColumn id="32" xr3:uid="{E701C720-C404-4391-B8A5-D9C68D70A2A8}" name="as_cause_variable" dataDxfId="65"/>
+    <tableColumn id="33" xr3:uid="{B9997837-7A9D-4A7C-AB55-42AABCFD811D}" name="outcome_variables" dataDxfId="64"/>
+    <tableColumn id="34" xr3:uid="{CFE1E853-EE6D-4F54-AF02-1C96FB97265D}" name="outcome_variables_new" dataDxfId="63"/>
     <tableColumn id="56" xr3:uid="{1EB74CFF-2A9A-4AB9-86D8-44680AE5245C}" name="outcome_variables_theory_LJ" dataDxfId="0"/>
-    <tableColumn id="55" xr3:uid="{67B27368-A820-459B-A3A2-94DC479CB03C}" name="outcome_variables_theory_NB" dataDxfId="1"/>
-    <tableColumn id="35" xr3:uid="{983B5AC6-01CB-430A-BFE9-47FB6C8A1A57}" name="outcome_variables_theory" dataDxfId="65"/>
-    <tableColumn id="36" xr3:uid="{4E2E13CE-F550-4BBD-9D43-D4DD2B7682C5}" name="intervention" dataDxfId="64"/>
-    <tableColumn id="37" xr3:uid="{301B9B6E-3055-4BD2-A785-5A89438E360A}" name=" intervention_description" dataDxfId="63"/>
-    <tableColumn id="38" xr3:uid="{967F2D4A-B38D-4733-AEBC-87F42E6372CA}" name="intervention_description_new" dataDxfId="62"/>
-    <tableColumn id="39" xr3:uid="{4A4637C3-0C9E-4AC6-A130-EC58C54AA78E}" name="sample_size" dataDxfId="61"/>
-    <tableColumn id="40" xr3:uid="{48C1563E-C36D-42F2-BAAC-D9258D9F7DDA}" name="sample_size_new" dataDxfId="60"/>
-    <tableColumn id="41" xr3:uid="{2197BFF1-80B6-45A4-A1DF-A26AFB19143E}" name="sample_age" dataDxfId="59"/>
-    <tableColumn id="42" xr3:uid="{9AA21FE9-EEA8-4B4D-B6A4-2B73876A3B34}" name="sample_age_new" dataDxfId="58"/>
-    <tableColumn id="43" xr3:uid="{E85023DE-EC6C-479B-9F2F-0428AFA9388F}" name="sample_sex" dataDxfId="57"/>
-    <tableColumn id="44" xr3:uid="{8DA8AEE4-D2C9-4991-81B1-9411D454D320}" name="sample_sex_male" dataDxfId="56"/>
-    <tableColumn id="45" xr3:uid="{B8B5E0FC-856F-4D00-A329-B6D961D92676}" name="sample_sex_female" dataDxfId="55"/>
-    <tableColumn id="46" xr3:uid="{3A87F76B-3DA3-4A54-93FC-DC8725B0608E}" name="sample_sex_nonbinary" dataDxfId="54"/>
-    <tableColumn id="47" xr3:uid="{A6957E5C-1E57-4297-A60F-C0D160A3DC1B}" name="sample_sex_noresponse" dataDxfId="53"/>
-    <tableColumn id="48" xr3:uid="{D76BE3F9-76C1-4B9F-855B-7FDC79B8FE2F}" name="sample_profession" dataDxfId="52"/>
-    <tableColumn id="49" xr3:uid="{520B4AA4-E8B0-4EF8-B82F-78D7563ADEAE}" name="sample_profession_new" dataDxfId="51"/>
-    <tableColumn id="50" xr3:uid="{B1845F5E-B0D1-44C7-9879-A514F7AB0082}" name="sample_recruitment" dataDxfId="50"/>
-    <tableColumn id="51" xr3:uid="{19AECBA3-1C73-4E2F-8F22-A9E94D2CD5E7}" name="sample_country" dataDxfId="49"/>
+    <tableColumn id="55" xr3:uid="{67B27368-A820-459B-A3A2-94DC479CB03C}" name="outcome_variables_theory_NB" dataDxfId="62"/>
+    <tableColumn id="35" xr3:uid="{983B5AC6-01CB-430A-BFE9-47FB6C8A1A57}" name="outcome_variables_theory" dataDxfId="61"/>
+    <tableColumn id="36" xr3:uid="{4E2E13CE-F550-4BBD-9D43-D4DD2B7682C5}" name="intervention" dataDxfId="60"/>
+    <tableColumn id="37" xr3:uid="{301B9B6E-3055-4BD2-A785-5A89438E360A}" name=" intervention_description" dataDxfId="59"/>
+    <tableColumn id="38" xr3:uid="{967F2D4A-B38D-4733-AEBC-87F42E6372CA}" name="intervention_description_new" dataDxfId="58"/>
+    <tableColumn id="39" xr3:uid="{4A4637C3-0C9E-4AC6-A130-EC58C54AA78E}" name="sample_size" dataDxfId="57"/>
+    <tableColumn id="40" xr3:uid="{48C1563E-C36D-42F2-BAAC-D9258D9F7DDA}" name="sample_size_new" dataDxfId="56"/>
+    <tableColumn id="41" xr3:uid="{2197BFF1-80B6-45A4-A1DF-A26AFB19143E}" name="sample_age" dataDxfId="55"/>
+    <tableColumn id="42" xr3:uid="{9AA21FE9-EEA8-4B4D-B6A4-2B73876A3B34}" name="sample_age_new" dataDxfId="54"/>
+    <tableColumn id="43" xr3:uid="{E85023DE-EC6C-479B-9F2F-0428AFA9388F}" name="sample_sex" dataDxfId="53"/>
+    <tableColumn id="44" xr3:uid="{8DA8AEE4-D2C9-4991-81B1-9411D454D320}" name="sample_sex_male" dataDxfId="52"/>
+    <tableColumn id="45" xr3:uid="{B8B5E0FC-856F-4D00-A329-B6D961D92676}" name="sample_sex_female" dataDxfId="51"/>
+    <tableColumn id="46" xr3:uid="{3A87F76B-3DA3-4A54-93FC-DC8725B0608E}" name="sample_sex_nonbinary" dataDxfId="50"/>
+    <tableColumn id="47" xr3:uid="{A6957E5C-1E57-4297-A60F-C0D160A3DC1B}" name="sample_sex_noresponse" dataDxfId="49"/>
+    <tableColumn id="48" xr3:uid="{D76BE3F9-76C1-4B9F-855B-7FDC79B8FE2F}" name="sample_profession" dataDxfId="48"/>
+    <tableColumn id="49" xr3:uid="{520B4AA4-E8B0-4EF8-B82F-78D7563ADEAE}" name="sample_profession_new" dataDxfId="47"/>
+    <tableColumn id="50" xr3:uid="{B1845F5E-B0D1-44C7-9879-A514F7AB0082}" name="sample_recruitment" dataDxfId="46"/>
+    <tableColumn id="51" xr3:uid="{19AECBA3-1C73-4E2F-8F22-A9E94D2CD5E7}" name="sample_country" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:AJ174" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:AJ174" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="A1:AJ174" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="36">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="authors" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="year" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="scale_number" dataDxfId="43"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="scale_number_new" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="scale_development " dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="scale_authors" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="scale_changes" dataDxfId="39"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="scale_changes_new" dataDxfId="38"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="scale_name" dataDxfId="37"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="scale_language" dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="item_number" dataDxfId="35"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="factors" dataDxfId="34"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="facets" dataDxfId="33"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="item_list" dataDxfId="32"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="reliability_alpha" dataDxfId="31"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="reliability_alpha_new" dataDxfId="30"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="reliability_composite" dataDxfId="29"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="reliability_composite_new" dataDxfId="28"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="reliability_testretest" dataDxfId="27"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="reliability_splithalf" dataDxfId="26"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="validity_content " dataDxfId="25"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="validity_content_description " dataDxfId="24"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="validity_construct_factor" dataDxfId="23"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="validity_construct_factor_new" dataDxfId="22"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="validity_construct_factor_description" dataDxfId="21"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="validity_construct_factor_fitindices" dataDxfId="20"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="validity_construct_discriminant_type" dataDxfId="19"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="validity_construct_discriminant_description" dataDxfId="18"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="validity_construct_discriminant_description_new" dataDxfId="17"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="validity_construct_convergent_type" dataDxfId="16"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="validity_construct_convergent_description" dataDxfId="15"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="validity_construct_convergent_description_new" dataDxfId="14"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="validity_criterion_type" dataDxfId="13"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="validity_criterion_results" dataDxfId="12"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="validity_incremental" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="authors" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="year" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="scale_number" dataDxfId="39"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="scale_number_new" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="scale_development " dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="scale_authors" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="scale_changes" dataDxfId="35"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="scale_changes_new" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="scale_name" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="scale_language" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="item_number" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="factors" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="facets" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="item_list" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="reliability_alpha" dataDxfId="27"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="reliability_alpha_new" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="reliability_composite" dataDxfId="25"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="reliability_composite_new" dataDxfId="24"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="reliability_testretest" dataDxfId="23"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="reliability_splithalf" dataDxfId="22"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="validity_content " dataDxfId="21"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="validity_content_description " dataDxfId="20"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="validity_construct_factor" dataDxfId="19"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="validity_construct_factor_new" dataDxfId="18"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="validity_construct_factor_description" dataDxfId="17"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="validity_construct_factor_fitindices" dataDxfId="16"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="validity_construct_discriminant_type" dataDxfId="15"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="validity_construct_discriminant_description" dataDxfId="14"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="validity_construct_discriminant_description_new" dataDxfId="13"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="validity_construct_convergent_type" dataDxfId="12"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="validity_construct_convergent_description" dataDxfId="11"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="validity_construct_convergent_description_new" dataDxfId="10"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="validity_criterion_type" dataDxfId="9"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="validity_criterion_results" dataDxfId="8"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="validity_incremental" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:A21" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:A21" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
   <autoFilter ref="A1:A21" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Additional Coding Information:" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Additional Coding Information:" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11219,64 +11217,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ167" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK187" sqref="AK187"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL19" sqref="AL19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="1"/>
-    <col min="2" max="2" width="16.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="1"/>
-    <col min="5" max="5" width="6.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7265625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="6.26953125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.54296875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.453125" style="1"/>
-    <col min="17" max="17" width="16.26953125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.1796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.26953125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7265625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7265625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="21.26953125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="28.54296875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="30.81640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="33" style="1" customWidth="1"/>
-    <col min="27" max="27" width="28.54296875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="63.81640625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="22" style="1" customWidth="1"/>
-    <col min="30" max="30" width="45.90625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="12"/>
+    <col min="2" max="2" width="16.54296875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="13"/>
+    <col min="5" max="5" width="6.26953125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="7.1796875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="7.7265625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" style="12" customWidth="1"/>
+    <col min="12" max="13" width="6.26953125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="10" style="12" customWidth="1"/>
+    <col min="15" max="15" width="14.54296875" style="12" customWidth="1"/>
+    <col min="16" max="16" width="11.453125" style="12"/>
+    <col min="17" max="17" width="16.26953125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="13" style="14" customWidth="1"/>
+    <col min="19" max="19" width="15.1796875" style="12" customWidth="1"/>
+    <col min="20" max="20" width="13.26953125" style="12" customWidth="1"/>
+    <col min="21" max="21" width="13.7265625" style="12" customWidth="1"/>
+    <col min="22" max="22" width="15.7265625" style="12" customWidth="1"/>
+    <col min="23" max="23" width="21.26953125" style="12" customWidth="1"/>
+    <col min="24" max="24" width="28.54296875" style="12" customWidth="1"/>
+    <col min="25" max="25" width="30.81640625" style="12" customWidth="1"/>
+    <col min="26" max="26" width="33" style="12" customWidth="1"/>
+    <col min="27" max="27" width="28.54296875" style="12" customWidth="1"/>
+    <col min="28" max="28" width="63.81640625" style="12" customWidth="1"/>
+    <col min="29" max="29" width="22" style="12" customWidth="1"/>
+    <col min="30" max="30" width="45.90625" style="12" customWidth="1"/>
     <col min="31" max="31" width="81.08984375" style="2" customWidth="1"/>
     <col min="32" max="33" width="21.26953125" style="1" customWidth="1"/>
     <col min="34" max="34" width="28.1796875" style="1" customWidth="1"/>
-    <col min="35" max="35" width="19.1796875" style="1" customWidth="1"/>
-    <col min="36" max="36" width="53.26953125" style="1" customWidth="1"/>
-    <col min="37" max="37" width="74.7265625" style="1" customWidth="1"/>
-    <col min="38" max="39" width="23.54296875" style="1" customWidth="1"/>
-    <col min="40" max="40" width="39.453125" style="1" customWidth="1"/>
-    <col min="41" max="41" width="14.26953125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="26" style="1" customWidth="1"/>
-    <col min="43" max="43" width="29" style="1" customWidth="1"/>
-    <col min="44" max="44" width="13.7265625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="17.453125" style="1" customWidth="1"/>
-    <col min="46" max="46" width="35.1796875" style="1" customWidth="1"/>
-    <col min="47" max="47" width="17.26953125" style="6" customWidth="1"/>
-    <col min="48" max="48" width="30.26953125" style="1" customWidth="1"/>
-    <col min="49" max="50" width="20" style="1" customWidth="1"/>
-    <col min="51" max="51" width="21.81640625" style="1" customWidth="1"/>
-    <col min="52" max="52" width="23.26953125" style="1" customWidth="1"/>
-    <col min="53" max="53" width="21.1796875" style="1" customWidth="1"/>
-    <col min="54" max="54" width="24" style="1" customWidth="1"/>
-    <col min="55" max="55" width="19.453125" style="1" customWidth="1"/>
-    <col min="56" max="56" width="16" style="1" customWidth="1"/>
+    <col min="35" max="35" width="19.1796875" style="12" customWidth="1"/>
+    <col min="36" max="36" width="53.26953125" style="12" customWidth="1"/>
+    <col min="37" max="37" width="74.7265625" style="12" customWidth="1"/>
+    <col min="38" max="38" width="33.6328125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="23.54296875" style="1" customWidth="1"/>
+    <col min="40" max="40" width="39.453125" style="12" customWidth="1"/>
+    <col min="41" max="41" width="14.26953125" style="12" customWidth="1"/>
+    <col min="42" max="42" width="26" style="12" customWidth="1"/>
+    <col min="43" max="43" width="29" style="12" customWidth="1"/>
+    <col min="44" max="44" width="13.7265625" style="12" customWidth="1"/>
+    <col min="45" max="45" width="17.453125" style="12" customWidth="1"/>
+    <col min="46" max="46" width="35.1796875" style="12" customWidth="1"/>
+    <col min="47" max="47" width="17.26953125" style="15" customWidth="1"/>
+    <col min="48" max="48" width="30.26953125" style="12" customWidth="1"/>
+    <col min="49" max="50" width="20" style="12" customWidth="1"/>
+    <col min="51" max="51" width="21.81640625" style="12" customWidth="1"/>
+    <col min="52" max="52" width="23.26953125" style="12" customWidth="1"/>
+    <col min="53" max="53" width="21.1796875" style="12" customWidth="1"/>
+    <col min="54" max="54" width="24" style="12" customWidth="1"/>
+    <col min="55" max="55" width="19.453125" style="12" customWidth="1"/>
+    <col min="56" max="56" width="16" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.35">
@@ -11392,10 +11391,10 @@
         <v>2146</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>2770</v>
+        <v>2761</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>2771</v>
+        <v>2762</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>2733</v>
@@ -11552,12 +11551,14 @@
       <c r="AL2" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN2" s="1"/>
       <c r="AO2" s="1">
         <v>0</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ2" s="1"/>
       <c r="AR2" s="1">
         <v>123</v>
       </c>
@@ -11579,6 +11580,8 @@
       <c r="AX2" s="1">
         <v>31</v>
       </c>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
       <c r="BA2" s="1" t="s">
         <v>49</v>
       </c>
@@ -11699,8 +11702,9 @@
         <v>58</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>2775</v>
-      </c>
+        <v>2766</v>
+      </c>
+      <c r="AN3" s="1"/>
       <c r="AO3" s="1">
         <v>1</v>
       </c>
@@ -11731,6 +11735,7 @@
       <c r="AX3" s="1">
         <v>30</v>
       </c>
+      <c r="AY3" s="1"/>
       <c r="AZ3" s="1">
         <v>1</v>
       </c>
@@ -11848,14 +11853,16 @@
         <v>2148</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN4" s="1"/>
       <c r="AO4" s="1">
         <v>0</v>
       </c>
       <c r="AP4" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ4" s="1"/>
       <c r="AR4" s="1">
         <v>306</v>
       </c>
@@ -11877,6 +11884,8 @@
       <c r="AX4" s="1">
         <v>41.83</v>
       </c>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
       <c r="BA4" s="1" t="s">
         <v>49</v>
       </c>
@@ -11997,14 +12006,16 @@
         <v>2149</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN5" s="1"/>
       <c r="AO5" s="1">
         <v>0</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ5" s="1"/>
       <c r="AR5" s="1">
         <v>525</v>
       </c>
@@ -12026,6 +12037,8 @@
       <c r="AX5" s="1">
         <v>40.799999999999997</v>
       </c>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
       <c r="BA5" s="1" t="s">
         <v>81</v>
       </c>
@@ -12140,14 +12153,16 @@
         <v>940</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN6" s="1"/>
       <c r="AO6" s="1">
         <v>0</v>
       </c>
       <c r="AP6" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ6" s="1"/>
       <c r="AR6" s="1">
         <v>263</v>
       </c>
@@ -12169,6 +12184,8 @@
       <c r="AX6" s="1">
         <v>41</v>
       </c>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
       <c r="BA6" s="1" t="s">
         <v>49</v>
       </c>
@@ -12283,14 +12300,16 @@
         <v>940</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN7" s="1"/>
       <c r="AO7" s="1">
         <v>0</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ7" s="1"/>
       <c r="AR7" s="1">
         <v>301</v>
       </c>
@@ -12306,6 +12325,10 @@
       <c r="AV7" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
       <c r="BA7" s="1" t="s">
         <v>49</v>
       </c>
@@ -12426,14 +12449,16 @@
         <v>940</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN8" s="1"/>
       <c r="AO8" s="1">
         <v>0</v>
       </c>
       <c r="AP8" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ8" s="1"/>
       <c r="AR8" s="1">
         <v>481</v>
       </c>
@@ -12455,6 +12480,8 @@
       <c r="AX8" s="1">
         <v>66</v>
       </c>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
       <c r="BA8" s="1" t="s">
         <v>157</v>
       </c>
@@ -12571,12 +12598,14 @@
       <c r="AL9" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN9" s="1"/>
       <c r="AO9" s="1">
         <v>0</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ9" s="1"/>
       <c r="AR9" s="1">
         <v>228</v>
       </c>
@@ -12598,6 +12627,8 @@
       <c r="AX9" s="1">
         <v>48.67</v>
       </c>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
       <c r="BA9" s="1" t="s">
         <v>39</v>
       </c>
@@ -12714,12 +12745,14 @@
       <c r="AL10" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN10" s="1"/>
       <c r="AO10" s="1">
         <v>0</v>
       </c>
       <c r="AP10" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ10" s="1"/>
       <c r="AR10" s="1">
         <v>430</v>
       </c>
@@ -12741,6 +12774,8 @@
       <c r="AX10" s="1">
         <v>56.7</v>
       </c>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
       <c r="BA10" s="1" t="s">
         <v>49</v>
       </c>
@@ -12855,14 +12890,16 @@
         <v>2153</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>2777</v>
-      </c>
+        <v>2768</v>
+      </c>
+      <c r="AN11" s="1"/>
       <c r="AO11" s="1">
         <v>0</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ11" s="1"/>
       <c r="AR11" s="1">
         <v>230</v>
       </c>
@@ -12872,9 +12909,14 @@
       <c r="AT11" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU11" s="6"/>
       <c r="AV11" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
       <c r="BA11" s="1" t="s">
         <v>136</v>
       </c>
@@ -12991,12 +13033,14 @@
       <c r="AL12" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN12" s="1"/>
       <c r="AO12" s="1">
         <v>0</v>
       </c>
       <c r="AP12" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ12" s="1"/>
       <c r="AR12" s="1">
         <v>67</v>
       </c>
@@ -13018,6 +13062,8 @@
       <c r="AX12" s="1">
         <v>29.85</v>
       </c>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
       <c r="BA12" s="1" t="s">
         <v>49</v>
       </c>
@@ -13134,12 +13180,14 @@
       <c r="AL13" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN13" s="1"/>
       <c r="AO13" s="1">
         <v>0</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ13" s="1"/>
       <c r="AR13" s="1">
         <v>464</v>
       </c>
@@ -13161,6 +13209,8 @@
       <c r="AX13" s="1">
         <v>52</v>
       </c>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
       <c r="BA13" s="1" t="s">
         <v>157</v>
       </c>
@@ -13271,12 +13321,15 @@
       <c r="AJ14" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AK14" s="1"/>
+      <c r="AN14" s="1"/>
       <c r="AO14" s="1">
         <v>0</v>
       </c>
       <c r="AP14" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ14" s="1"/>
       <c r="AR14" s="1">
         <v>170</v>
       </c>
@@ -13298,6 +13351,8 @@
       <c r="AX14" s="1">
         <v>52.35</v>
       </c>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
       <c r="BA14" s="1" t="s">
         <v>167</v>
       </c>
@@ -13414,12 +13469,15 @@
       <c r="AJ15" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AK15" s="1"/>
+      <c r="AN15" s="1"/>
       <c r="AO15" s="1">
         <v>0</v>
       </c>
       <c r="AP15" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ15" s="1"/>
       <c r="AR15" s="1">
         <v>99</v>
       </c>
@@ -13441,6 +13499,8 @@
       <c r="AX15" s="1">
         <v>45.45</v>
       </c>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
       <c r="BA15" s="1" t="s">
         <v>49</v>
       </c>
@@ -13555,14 +13615,16 @@
         <v>188</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN16" s="1"/>
       <c r="AO16" s="1">
         <v>0</v>
       </c>
       <c r="AP16" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ16" s="1"/>
       <c r="AR16" s="1">
         <v>299</v>
       </c>
@@ -13584,6 +13646,8 @@
       <c r="AX16" s="1">
         <v>49.5</v>
       </c>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
       <c r="BA16" s="1" t="s">
         <v>39</v>
       </c>
@@ -13700,12 +13764,15 @@
       <c r="AJ17" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AK17" s="1"/>
+      <c r="AN17" s="1"/>
       <c r="AO17" s="1">
         <v>0</v>
       </c>
       <c r="AP17" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ17" s="1"/>
       <c r="AR17" s="1">
         <v>338</v>
       </c>
@@ -13727,6 +13794,8 @@
       <c r="AX17" s="1">
         <v>30.2</v>
       </c>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
       <c r="BA17" s="1" t="s">
         <v>200</v>
       </c>
@@ -13847,14 +13916,16 @@
         <v>2156</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>2778</v>
-      </c>
+        <v>2769</v>
+      </c>
+      <c r="AN18" s="1"/>
       <c r="AO18" s="1">
         <v>0</v>
       </c>
       <c r="AP18" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ18" s="1"/>
       <c r="AR18" s="1">
         <v>252</v>
       </c>
@@ -13876,6 +13947,8 @@
       <c r="AX18" s="1">
         <v>49.21</v>
       </c>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
       <c r="BA18" s="1" t="s">
         <v>49</v>
       </c>
@@ -13992,12 +14065,14 @@
       <c r="AL19" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN19" s="1"/>
       <c r="AO19" s="1">
         <v>0</v>
       </c>
       <c r="AP19" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ19" s="1"/>
       <c r="AR19" s="1">
         <v>250</v>
       </c>
@@ -14019,6 +14094,8 @@
       <c r="AX19" s="1">
         <v>45.2</v>
       </c>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
       <c r="BA19" s="1" t="s">
         <v>157</v>
       </c>
@@ -14139,12 +14216,14 @@
         <v>220</v>
       </c>
       <c r="AL20" s="10"/>
+      <c r="AN20" s="1"/>
       <c r="AO20" s="1">
         <v>0</v>
       </c>
       <c r="AP20" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ20" s="1"/>
       <c r="AR20" s="1">
         <v>248</v>
       </c>
@@ -14166,6 +14245,8 @@
       <c r="AX20" s="1">
         <v>67.7</v>
       </c>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
       <c r="BA20" s="1" t="s">
         <v>39</v>
       </c>
@@ -14282,12 +14363,15 @@
       <c r="AJ21" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AK21" s="1"/>
+      <c r="AN21" s="1"/>
       <c r="AO21" s="1">
         <v>0</v>
       </c>
       <c r="AP21" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ21" s="1"/>
       <c r="AR21" s="1">
         <v>134</v>
       </c>
@@ -14309,6 +14393,8 @@
       <c r="AX21" s="1">
         <v>42.5</v>
       </c>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
       <c r="BA21" s="1" t="s">
         <v>240</v>
       </c>
@@ -14395,6 +14481,8 @@
       <c r="X22" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
       <c r="AA22" s="1" t="s">
         <v>39</v>
       </c>
@@ -14417,14 +14505,16 @@
         <v>2157</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN22" s="1"/>
       <c r="AO22" s="1">
         <v>0</v>
       </c>
       <c r="AP22" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ22" s="1"/>
       <c r="AR22" s="1">
         <v>133</v>
       </c>
@@ -14446,6 +14536,8 @@
       <c r="AX22" s="1">
         <v>18.62</v>
       </c>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
       <c r="BA22" s="1" t="s">
         <v>250</v>
       </c>
@@ -14560,14 +14652,16 @@
         <v>2158</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN23" s="1"/>
       <c r="AO23" s="1">
         <v>0</v>
       </c>
       <c r="AP23" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ23" s="1"/>
       <c r="AR23" s="1">
         <v>138</v>
       </c>
@@ -14589,6 +14683,8 @@
       <c r="AX23" s="1">
         <v>14.5</v>
       </c>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
       <c r="BA23" s="1" t="s">
         <v>260</v>
       </c>
@@ -14703,14 +14799,16 @@
         <v>2148</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN24" s="1"/>
       <c r="AO24" s="1">
         <v>0</v>
       </c>
       <c r="AP24" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ24" s="1"/>
       <c r="AR24" s="1">
         <v>384</v>
       </c>
@@ -14720,9 +14818,14 @@
       <c r="AT24" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU24" s="6"/>
       <c r="AV24" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
       <c r="BA24" s="1" t="s">
         <v>268</v>
       </c>
@@ -14837,14 +14940,16 @@
         <v>2159</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>2779</v>
-      </c>
+        <v>2770</v>
+      </c>
+      <c r="AN25" s="1"/>
       <c r="AO25" s="1">
         <v>0</v>
       </c>
       <c r="AP25" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ25" s="1"/>
       <c r="AR25" s="1">
         <v>184</v>
       </c>
@@ -14866,6 +14971,8 @@
       <c r="AX25" s="1">
         <v>57</v>
       </c>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
       <c r="BA25" s="1" t="s">
         <v>157</v>
       </c>
@@ -14980,14 +15087,16 @@
         <v>283</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>2774</v>
-      </c>
+        <v>2765</v>
+      </c>
+      <c r="AN26" s="1"/>
       <c r="AO26" s="1">
         <v>0</v>
       </c>
       <c r="AP26" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ26" s="1"/>
       <c r="AR26" s="1">
         <v>390</v>
       </c>
@@ -14997,9 +15106,16 @@
       <c r="AT26" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU26" s="6"/>
       <c r="AV26" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
       <c r="BC26" s="1">
         <v>1</v>
       </c>
@@ -15108,14 +15224,16 @@
         <v>2160</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN27" s="1"/>
       <c r="AO27" s="1">
         <v>0</v>
       </c>
       <c r="AP27" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ27" s="1"/>
       <c r="AR27" s="1">
         <v>100</v>
       </c>
@@ -15137,6 +15255,8 @@
       <c r="AX27" s="1">
         <v>24</v>
       </c>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1"/>
       <c r="BA27" s="1" t="s">
         <v>39</v>
       </c>
@@ -15251,14 +15371,16 @@
         <v>2154</v>
       </c>
       <c r="AL28" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN28" s="1"/>
       <c r="AO28" s="1">
         <v>0</v>
       </c>
       <c r="AP28" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ28" s="1"/>
       <c r="AR28" s="1">
         <v>836</v>
       </c>
@@ -15280,6 +15402,8 @@
       <c r="AX28" s="1">
         <v>49.4</v>
       </c>
+      <c r="AY28" s="1"/>
+      <c r="AZ28" s="1"/>
       <c r="BA28" s="1" t="s">
         <v>39</v>
       </c>
@@ -15396,12 +15520,14 @@
       <c r="AL29" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN29" s="1"/>
       <c r="AO29" s="1">
         <v>0</v>
       </c>
       <c r="AP29" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ29" s="1"/>
       <c r="AR29" s="1">
         <v>70</v>
       </c>
@@ -15411,9 +15537,14 @@
       <c r="AT29" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU29" s="6"/>
       <c r="AV29" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
       <c r="BA29" s="1" t="s">
         <v>310</v>
       </c>
@@ -15534,14 +15665,16 @@
         <v>2152</v>
       </c>
       <c r="AL30" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN30" s="1"/>
       <c r="AO30" s="1">
         <v>0</v>
       </c>
       <c r="AP30" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ30" s="1"/>
       <c r="AR30" s="1">
         <v>454</v>
       </c>
@@ -15563,6 +15696,8 @@
       <c r="AX30" s="1">
         <v>78.599999999999994</v>
       </c>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
       <c r="BA30" s="1" t="s">
         <v>322</v>
       </c>
@@ -15683,14 +15818,16 @@
         <v>2161</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>2780</v>
-      </c>
+        <v>2771</v>
+      </c>
+      <c r="AN31" s="1"/>
       <c r="AO31" s="1">
         <v>0</v>
       </c>
       <c r="AP31" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ31" s="1"/>
       <c r="AR31" s="1">
         <v>107</v>
       </c>
@@ -15712,12 +15849,15 @@
       <c r="AX31" s="1">
         <v>59.81</v>
       </c>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
       <c r="BA31" s="1" t="s">
         <v>49</v>
       </c>
       <c r="BB31" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="BC31" s="1"/>
       <c r="BD31" s="1" t="s">
         <v>82</v>
       </c>
@@ -15823,14 +15963,16 @@
         <v>2152</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN32" s="1"/>
       <c r="AO32" s="1">
         <v>0</v>
       </c>
       <c r="AP32" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ32" s="1"/>
       <c r="AR32" s="1">
         <v>140</v>
       </c>
@@ -15840,9 +15982,14 @@
       <c r="AT32" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU32" s="6"/>
       <c r="AV32" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
       <c r="BA32" s="1" t="s">
         <v>342</v>
       </c>
@@ -15957,14 +16104,16 @@
         <v>2162</v>
       </c>
       <c r="AL33" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN33" s="1"/>
       <c r="AO33" s="1">
         <v>0</v>
       </c>
       <c r="AP33" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ33" s="1"/>
       <c r="AR33" s="1">
         <v>312</v>
       </c>
@@ -15986,6 +16135,8 @@
       <c r="AX33" s="1">
         <v>56.78</v>
       </c>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
       <c r="BA33" s="1" t="s">
         <v>322</v>
       </c>
@@ -16102,6 +16253,8 @@
       <c r="AJ34" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AK34" s="1"/>
+      <c r="AN34" s="1"/>
       <c r="AO34" s="1">
         <v>1</v>
       </c>
@@ -16132,6 +16285,8 @@
       <c r="AX34" s="1">
         <v>29</v>
       </c>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
       <c r="BA34" s="1" t="s">
         <v>49</v>
       </c>
@@ -16246,14 +16401,16 @@
         <v>2119</v>
       </c>
       <c r="AL35" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN35" s="1"/>
       <c r="AO35" s="1">
         <v>0</v>
       </c>
       <c r="AP35" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ35" s="1"/>
       <c r="AR35" s="1">
         <v>117</v>
       </c>
@@ -16275,6 +16432,8 @@
       <c r="AX35" s="1">
         <v>45.3</v>
       </c>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
       <c r="BA35" s="1" t="s">
         <v>49</v>
       </c>
@@ -16389,14 +16548,16 @@
         <v>2723</v>
       </c>
       <c r="AL36" s="1" t="s">
-        <v>2781</v>
-      </c>
+        <v>2772</v>
+      </c>
+      <c r="AN36" s="1"/>
       <c r="AO36" s="1">
         <v>0</v>
       </c>
       <c r="AP36" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ36" s="1"/>
       <c r="AR36" s="1">
         <v>252</v>
       </c>
@@ -16418,6 +16579,8 @@
       <c r="AX36" s="1">
         <v>50</v>
       </c>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
       <c r="BA36" s="1" t="s">
         <v>39</v>
       </c>
@@ -16532,14 +16695,16 @@
         <v>2152</v>
       </c>
       <c r="AL37" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN37" s="1"/>
       <c r="AO37" s="1">
         <v>0</v>
       </c>
       <c r="AP37" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ37" s="1"/>
       <c r="AR37" s="1">
         <v>651</v>
       </c>
@@ -16681,14 +16846,16 @@
         <v>2119</v>
       </c>
       <c r="AL38" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN38" s="1"/>
       <c r="AO38" s="1">
         <v>0</v>
       </c>
       <c r="AP38" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ38" s="1"/>
       <c r="AR38" s="1" t="s">
         <v>402</v>
       </c>
@@ -16698,9 +16865,14 @@
       <c r="AT38" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU38" s="6"/>
       <c r="AV38" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
       <c r="BA38" s="1" t="s">
         <v>49</v>
       </c>
@@ -16815,14 +16987,16 @@
         <v>2119</v>
       </c>
       <c r="AL39" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN39" s="1"/>
       <c r="AO39" s="1">
         <v>0</v>
       </c>
       <c r="AP39" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ39" s="1"/>
       <c r="AR39" s="1">
         <v>4</v>
       </c>
@@ -16832,9 +17006,14 @@
       <c r="AT39" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU39" s="6"/>
       <c r="AV39" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="AZ39" s="1"/>
       <c r="BA39" s="1" t="s">
         <v>404</v>
       </c>
@@ -16949,14 +17128,16 @@
         <v>2119</v>
       </c>
       <c r="AL40" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN40" s="1"/>
       <c r="AO40" s="1">
         <v>0</v>
       </c>
       <c r="AP40" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ40" s="1"/>
       <c r="AR40" s="1">
         <v>119</v>
       </c>
@@ -16978,6 +17159,8 @@
       <c r="AX40" s="1">
         <v>61</v>
       </c>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
       <c r="BA40" s="1" t="s">
         <v>49</v>
       </c>
@@ -17058,6 +17241,7 @@
       <c r="V41" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="W41" s="1"/>
       <c r="X41" s="1" t="s">
         <v>39</v>
       </c>
@@ -17085,12 +17269,15 @@
       <c r="AJ41" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AK41" s="1"/>
+      <c r="AN41" s="1"/>
       <c r="AO41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AP41" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ41" s="1"/>
       <c r="AR41" s="1" t="s">
         <v>39</v>
       </c>
@@ -17100,9 +17287,14 @@
       <c r="AT41" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU41" s="6"/>
       <c r="AV41" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1"/>
       <c r="BA41" s="1" t="s">
         <v>39</v>
       </c>
@@ -17211,7 +17403,7 @@
         <v>2133</v>
       </c>
       <c r="AF42" s="1" t="s">
-        <v>2754</v>
+        <v>2751</v>
       </c>
       <c r="AI42" s="1">
         <v>0</v>
@@ -17219,6 +17411,8 @@
       <c r="AJ42" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AK42" s="1"/>
+      <c r="AN42" s="1"/>
       <c r="AO42" s="1">
         <v>1</v>
       </c>
@@ -17249,6 +17443,8 @@
       <c r="AX42" s="1">
         <v>39.799999999999997</v>
       </c>
+      <c r="AY42" s="1"/>
+      <c r="AZ42" s="1"/>
       <c r="BA42" s="1" t="s">
         <v>39</v>
       </c>
@@ -17363,14 +17559,16 @@
         <v>2163</v>
       </c>
       <c r="AL43" s="1" t="s">
-        <v>2782</v>
-      </c>
+        <v>2773</v>
+      </c>
+      <c r="AN43" s="1"/>
       <c r="AO43" s="1">
         <v>0</v>
       </c>
       <c r="AP43" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ43" s="1"/>
       <c r="AR43" s="1">
         <v>569</v>
       </c>
@@ -17398,6 +17596,8 @@
       <c r="AZ43" s="1">
         <v>0.7</v>
       </c>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
       <c r="BC43" s="1">
         <v>1</v>
       </c>
@@ -17448,6 +17648,7 @@
       <c r="N44" s="1" t="s">
         <v>388</v>
       </c>
+      <c r="O44" s="1"/>
       <c r="P44" s="1">
         <v>1</v>
       </c>
@@ -17503,14 +17704,16 @@
         <v>2164</v>
       </c>
       <c r="AL44" s="1" t="s">
-        <v>2783</v>
-      </c>
+        <v>2774</v>
+      </c>
+      <c r="AN44" s="1"/>
       <c r="AO44" s="1">
         <v>0</v>
       </c>
       <c r="AP44" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ44" s="1"/>
       <c r="AR44" s="1">
         <v>139</v>
       </c>
@@ -17520,9 +17723,14 @@
       <c r="AT44" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU44" s="6"/>
       <c r="AV44" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="1"/>
+      <c r="AY44" s="1"/>
+      <c r="AZ44" s="1"/>
       <c r="BA44" s="1" t="s">
         <v>436</v>
       </c>
@@ -17579,6 +17787,7 @@
       <c r="N45" s="1" t="s">
         <v>416</v>
       </c>
+      <c r="O45" s="1"/>
       <c r="P45" s="1">
         <v>1</v>
       </c>
@@ -17634,14 +17843,16 @@
         <v>2172</v>
       </c>
       <c r="AL45" s="1" t="s">
-        <v>2784</v>
-      </c>
+        <v>2775</v>
+      </c>
+      <c r="AN45" s="1"/>
       <c r="AO45" s="1">
         <v>0</v>
       </c>
       <c r="AP45" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ45" s="1"/>
       <c r="AR45" s="1">
         <v>182</v>
       </c>
@@ -17651,9 +17862,14 @@
       <c r="AT45" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU45" s="6"/>
       <c r="AV45" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="1"/>
       <c r="BA45" s="1" t="s">
         <v>446</v>
       </c>
@@ -17768,14 +17984,16 @@
         <v>2166</v>
       </c>
       <c r="AL46" s="1" t="s">
-        <v>2778</v>
-      </c>
+        <v>2769</v>
+      </c>
+      <c r="AN46" s="1"/>
       <c r="AO46" s="1">
         <v>0</v>
       </c>
       <c r="AP46" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ46" s="1"/>
       <c r="AR46" s="1">
         <v>714</v>
       </c>
@@ -17797,6 +18015,7 @@
       <c r="AX46" s="1">
         <v>60.5</v>
       </c>
+      <c r="AY46" s="1"/>
       <c r="AZ46" s="1">
         <v>0.7</v>
       </c>
@@ -17914,14 +18133,16 @@
         <v>940</v>
       </c>
       <c r="AL47" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN47" s="1"/>
       <c r="AO47" s="1">
         <v>0</v>
       </c>
       <c r="AP47" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ47" s="1"/>
       <c r="AR47" s="1">
         <v>212</v>
       </c>
@@ -17943,12 +18164,15 @@
       <c r="AX47" s="1">
         <v>48.6</v>
       </c>
+      <c r="AY47" s="1"/>
+      <c r="AZ47" s="1"/>
       <c r="BA47" s="1" t="s">
         <v>466</v>
       </c>
       <c r="BB47" s="1" t="s">
         <v>2240</v>
       </c>
+      <c r="BC47" s="1"/>
       <c r="BD47" s="1" t="s">
         <v>82</v>
       </c>
@@ -18054,14 +18278,16 @@
         <v>2167</v>
       </c>
       <c r="AL48" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN48" s="1"/>
       <c r="AO48" s="1">
         <v>0</v>
       </c>
       <c r="AP48" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ48" s="1"/>
       <c r="AR48" s="1">
         <v>486</v>
       </c>
@@ -18083,6 +18309,8 @@
       <c r="AX48" s="1">
         <v>59.1</v>
       </c>
+      <c r="AY48" s="1"/>
+      <c r="AZ48" s="1"/>
       <c r="BA48" s="1" t="s">
         <v>49</v>
       </c>
@@ -18197,14 +18425,16 @@
         <v>2165</v>
       </c>
       <c r="AL49" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN49" s="1"/>
       <c r="AO49" s="1">
         <v>0</v>
       </c>
       <c r="AP49" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ49" s="1"/>
       <c r="AR49" s="1">
         <v>187</v>
       </c>
@@ -18226,6 +18456,8 @@
       <c r="AX49" s="1">
         <v>56.1</v>
       </c>
+      <c r="AY49" s="1"/>
+      <c r="AZ49" s="1"/>
       <c r="BA49" s="1" t="s">
         <v>49</v>
       </c>
@@ -18340,14 +18572,16 @@
         <v>2168</v>
       </c>
       <c r="AL50" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN50" s="1"/>
       <c r="AO50" s="1">
         <v>0</v>
       </c>
       <c r="AP50" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ50" s="1"/>
       <c r="AR50" s="1">
         <v>498</v>
       </c>
@@ -18357,6 +18591,7 @@
       <c r="AT50" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU50" s="6"/>
       <c r="AV50" s="1" t="s">
         <v>493</v>
       </c>
@@ -18366,6 +18601,8 @@
       <c r="AX50" s="1">
         <v>59</v>
       </c>
+      <c r="AY50" s="1"/>
+      <c r="AZ50" s="1"/>
       <c r="BA50" s="1" t="s">
         <v>49</v>
       </c>
@@ -18480,14 +18717,16 @@
         <v>2148</v>
       </c>
       <c r="AL51" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN51" s="1"/>
       <c r="AO51" s="1">
         <v>0</v>
       </c>
       <c r="AP51" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ51" s="1"/>
       <c r="AR51" s="1">
         <v>1132</v>
       </c>
@@ -18509,6 +18748,8 @@
       <c r="AX51" s="1">
         <v>41.9</v>
       </c>
+      <c r="AY51" s="1"/>
+      <c r="AZ51" s="1"/>
       <c r="BA51" s="1" t="s">
         <v>39</v>
       </c>
@@ -18629,14 +18870,16 @@
         <v>2190</v>
       </c>
       <c r="AL52" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN52" s="1"/>
       <c r="AO52" s="1">
         <v>0</v>
       </c>
       <c r="AP52" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ52" s="1"/>
       <c r="AR52" s="1">
         <v>263</v>
       </c>
@@ -18646,12 +18889,16 @@
       <c r="AT52" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU52" s="6"/>
       <c r="AV52" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AW52" s="1" t="s">
         <v>220</v>
       </c>
+      <c r="AX52" s="1"/>
+      <c r="AY52" s="1"/>
+      <c r="AZ52" s="1"/>
       <c r="BA52" s="1" t="s">
         <v>510</v>
       </c>
@@ -18768,12 +19015,14 @@
       <c r="AL53" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN53" s="1"/>
       <c r="AO53" s="1">
         <v>0</v>
       </c>
       <c r="AP53" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ53" s="1"/>
       <c r="AR53" s="1">
         <v>310</v>
       </c>
@@ -18795,6 +19044,8 @@
       <c r="AX53" s="1">
         <v>37.700000000000003</v>
       </c>
+      <c r="AY53" s="1"/>
+      <c r="AZ53" s="1"/>
       <c r="BA53" s="1" t="s">
         <v>519</v>
       </c>
@@ -18911,12 +19162,14 @@
       <c r="AL54" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN54" s="1"/>
       <c r="AO54" s="1">
         <v>0</v>
       </c>
       <c r="AP54" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ54" s="1"/>
       <c r="AR54" s="1">
         <v>169</v>
       </c>
@@ -18938,6 +19191,8 @@
       <c r="AX54" s="1">
         <v>47</v>
       </c>
+      <c r="AY54" s="1"/>
+      <c r="AZ54" s="1"/>
       <c r="BA54" s="1" t="s">
         <v>528</v>
       </c>
@@ -19054,12 +19309,14 @@
       <c r="AL55" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN55" s="1"/>
       <c r="AO55" s="1">
         <v>0</v>
       </c>
       <c r="AP55" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ55" s="1"/>
       <c r="AR55" s="1">
         <v>84</v>
       </c>
@@ -19081,6 +19338,8 @@
       <c r="AX55" s="1">
         <v>60</v>
       </c>
+      <c r="AY55" s="1"/>
+      <c r="AZ55" s="1"/>
       <c r="BA55" s="1" t="s">
         <v>528</v>
       </c>
@@ -19197,12 +19456,14 @@
       <c r="AL56" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN56" s="1"/>
       <c r="AO56" s="1">
         <v>0</v>
       </c>
       <c r="AP56" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ56" s="1"/>
       <c r="AR56" s="1">
         <v>669</v>
       </c>
@@ -19212,6 +19473,7 @@
       <c r="AT56" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU56" s="6"/>
       <c r="AV56" s="1" t="s">
         <v>540</v>
       </c>
@@ -19221,6 +19483,7 @@
       <c r="AX56" s="1">
         <v>41.7</v>
       </c>
+      <c r="AY56" s="1"/>
       <c r="AZ56" s="1">
         <v>0.3</v>
       </c>
@@ -19307,6 +19570,9 @@
       <c r="W57" s="1">
         <v>74</v>
       </c>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
       <c r="AA57" s="1" t="s">
         <v>39</v>
       </c>
@@ -19323,7 +19589,7 @@
         <v>2132</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>2748</v>
+        <v>2767</v>
       </c>
       <c r="AI57" s="1">
         <v>1</v>
@@ -19335,14 +19601,16 @@
         <v>940</v>
       </c>
       <c r="AL57" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN57" s="1"/>
       <c r="AO57" s="1">
         <v>0</v>
       </c>
       <c r="AP57" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ57" s="1"/>
       <c r="AR57" s="1">
         <v>400</v>
       </c>
@@ -19364,6 +19632,8 @@
       <c r="AX57" s="1">
         <v>38</v>
       </c>
+      <c r="AY57" s="1"/>
+      <c r="AZ57" s="1"/>
       <c r="BA57" s="1" t="s">
         <v>551</v>
       </c>
@@ -19486,12 +19756,14 @@
       <c r="AL58" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN58" s="1"/>
       <c r="AO58" s="1">
         <v>0</v>
       </c>
       <c r="AP58" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ58" s="1"/>
       <c r="AR58" s="1">
         <v>327</v>
       </c>
@@ -19513,6 +19785,8 @@
       <c r="AX58" s="1">
         <v>28.44</v>
       </c>
+      <c r="AY58" s="1"/>
+      <c r="AZ58" s="1"/>
       <c r="BA58" s="1" t="s">
         <v>562</v>
       </c>
@@ -19621,7 +19895,7 @@
         <v>2115</v>
       </c>
       <c r="AF59" s="1" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="AI59" s="1">
         <v>1</v>
@@ -19633,11 +19907,14 @@
         <v>2170</v>
       </c>
       <c r="AL59" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN59" s="1"/>
       <c r="AO59" s="1">
         <v>0</v>
       </c>
+      <c r="AP59" s="1"/>
+      <c r="AQ59" s="1"/>
       <c r="AR59" s="1">
         <v>437</v>
       </c>
@@ -19659,6 +19936,8 @@
       <c r="AX59" s="1">
         <v>36</v>
       </c>
+      <c r="AY59" s="1"/>
+      <c r="AZ59" s="1"/>
       <c r="BA59" s="1" t="s">
         <v>49</v>
       </c>
@@ -19767,7 +20046,7 @@
         <v>2116</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="AI60" s="1">
         <v>1</v>
@@ -19779,14 +20058,16 @@
         <v>283</v>
       </c>
       <c r="AL60" s="1" t="s">
-        <v>2774</v>
-      </c>
+        <v>2765</v>
+      </c>
+      <c r="AN60" s="1"/>
       <c r="AO60" s="1">
         <v>0</v>
       </c>
       <c r="AP60" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ60" s="1"/>
       <c r="AR60" s="1">
         <v>387</v>
       </c>
@@ -19796,9 +20077,14 @@
       <c r="AT60" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU60" s="6"/>
       <c r="AV60" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW60" s="1"/>
+      <c r="AX60" s="1"/>
+      <c r="AY60" s="1"/>
+      <c r="AZ60" s="1"/>
       <c r="BA60" s="1" t="s">
         <v>39</v>
       </c>
@@ -19861,6 +20147,7 @@
       <c r="P61" s="1">
         <v>1</v>
       </c>
+      <c r="Q61" s="1"/>
       <c r="R61" s="1">
         <v>2</v>
       </c>
@@ -19910,14 +20197,16 @@
         <v>2171</v>
       </c>
       <c r="AL61" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN61" s="1"/>
       <c r="AO61" s="1">
         <v>0</v>
       </c>
       <c r="AP61" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ61" s="1"/>
       <c r="AR61" s="1">
         <v>302</v>
       </c>
@@ -19927,9 +20216,14 @@
       <c r="AT61" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU61" s="6"/>
       <c r="AV61" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW61" s="1"/>
+      <c r="AX61" s="1"/>
+      <c r="AY61" s="1"/>
+      <c r="AZ61" s="1"/>
       <c r="BA61" s="1" t="s">
         <v>39</v>
       </c>
@@ -20038,7 +20332,7 @@
         <v>791</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="AI62" s="1">
         <v>1</v>
@@ -20052,6 +20346,7 @@
       <c r="AL62" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN62" s="1"/>
       <c r="AO62" s="1">
         <v>1</v>
       </c>
@@ -20082,6 +20377,7 @@
       <c r="AX62" s="1">
         <v>30</v>
       </c>
+      <c r="AY62" s="1"/>
       <c r="AZ62" s="1">
         <v>2</v>
       </c>
@@ -20199,14 +20495,16 @@
         <v>2152</v>
       </c>
       <c r="AL63" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN63" s="1"/>
       <c r="AO63" s="1">
         <v>0</v>
       </c>
       <c r="AP63" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ63" s="1"/>
       <c r="AR63" s="1">
         <v>433</v>
       </c>
@@ -20228,6 +20526,8 @@
       <c r="AX63" s="1">
         <v>46.9</v>
       </c>
+      <c r="AY63" s="1"/>
+      <c r="AZ63" s="1"/>
       <c r="BA63" s="1" t="s">
         <v>805</v>
       </c>
@@ -20342,14 +20642,16 @@
         <v>2132</v>
       </c>
       <c r="AL64" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN64" s="1"/>
       <c r="AO64" s="1">
         <v>0</v>
       </c>
       <c r="AP64" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ64" s="1"/>
       <c r="AR64" s="1">
         <v>236</v>
       </c>
@@ -20359,9 +20661,14 @@
       <c r="AT64" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU64" s="6"/>
       <c r="AV64" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW64" s="1"/>
+      <c r="AX64" s="1"/>
+      <c r="AY64" s="1"/>
+      <c r="AZ64" s="1"/>
       <c r="BA64" s="1" t="s">
         <v>812</v>
       </c>
@@ -20476,14 +20783,16 @@
         <v>2173</v>
       </c>
       <c r="AL65" s="1" t="s">
-        <v>2785</v>
-      </c>
+        <v>2776</v>
+      </c>
+      <c r="AN65" s="1"/>
       <c r="AO65" s="1">
         <v>0</v>
       </c>
       <c r="AP65" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ65" s="1"/>
       <c r="AR65" s="1">
         <v>239</v>
       </c>
@@ -20493,6 +20802,7 @@
       <c r="AT65" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU65" s="6"/>
       <c r="AV65" s="1" t="s">
         <v>820</v>
       </c>
@@ -20502,6 +20812,8 @@
       <c r="AX65" s="1">
         <v>9</v>
       </c>
+      <c r="AY65" s="1"/>
+      <c r="AZ65" s="1"/>
       <c r="BA65" s="1" t="s">
         <v>821</v>
       </c>
@@ -20567,6 +20879,8 @@
       <c r="Q66" s="1" t="s">
         <v>822</v>
       </c>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
       <c r="T66" s="1" t="s">
         <v>39</v>
       </c>
@@ -20594,12 +20908,19 @@
       <c r="AB66" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+      <c r="AI66" s="1"/>
+      <c r="AJ66" s="1"/>
+      <c r="AK66" s="1"/>
+      <c r="AN66" s="1"/>
       <c r="AO66" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AP66" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ66" s="1"/>
       <c r="AR66" s="1" t="s">
         <v>39</v>
       </c>
@@ -20609,9 +20930,14 @@
       <c r="AT66" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU66" s="6"/>
       <c r="AV66" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW66" s="1"/>
+      <c r="AX66" s="1"/>
+      <c r="AY66" s="1"/>
+      <c r="AZ66" s="1"/>
       <c r="BA66" s="1" t="s">
         <v>39</v>
       </c>
@@ -20677,6 +21003,8 @@
       <c r="Q67" s="1" t="s">
         <v>824</v>
       </c>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
       <c r="T67" s="1" t="s">
         <v>39</v>
       </c>
@@ -20704,12 +21032,19 @@
       <c r="AB67" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AN67" s="1"/>
       <c r="AO67" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AP67" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ67" s="1"/>
       <c r="AR67" s="1" t="s">
         <v>39</v>
       </c>
@@ -20719,9 +21054,14 @@
       <c r="AT67" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU67" s="6"/>
       <c r="AV67" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW67" s="1"/>
+      <c r="AX67" s="1"/>
+      <c r="AY67" s="1"/>
+      <c r="AZ67" s="1"/>
       <c r="BA67" s="1" t="s">
         <v>39</v>
       </c>
@@ -20787,6 +21127,8 @@
       <c r="Q68" s="1" t="s">
         <v>826</v>
       </c>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
       <c r="T68" s="1" t="s">
         <v>39</v>
       </c>
@@ -20814,12 +21156,19 @@
       <c r="AB68" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AN68" s="1"/>
       <c r="AO68" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AP68" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ68" s="1"/>
       <c r="AR68" s="1" t="s">
         <v>39</v>
       </c>
@@ -20829,9 +21178,14 @@
       <c r="AT68" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU68" s="6"/>
       <c r="AV68" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW68" s="1"/>
+      <c r="AX68" s="1"/>
+      <c r="AY68" s="1"/>
+      <c r="AZ68" s="1"/>
       <c r="BA68" s="1" t="s">
         <v>39</v>
       </c>
@@ -20915,6 +21269,8 @@
       <c r="W69" s="1">
         <v>58</v>
       </c>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
       <c r="Z69" s="1" t="s">
         <v>39</v>
       </c>
@@ -20940,14 +21296,16 @@
         <v>940</v>
       </c>
       <c r="AL69" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN69" s="1"/>
       <c r="AO69" s="1">
         <v>0</v>
       </c>
       <c r="AP69" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ69" s="1"/>
       <c r="AR69" s="1">
         <v>450</v>
       </c>
@@ -20969,6 +21327,8 @@
       <c r="AX69" s="1">
         <v>58.6</v>
       </c>
+      <c r="AY69" s="1"/>
+      <c r="AZ69" s="1"/>
       <c r="BA69" s="1" t="s">
         <v>49</v>
       </c>
@@ -21025,9 +21385,11 @@
       <c r="N70" s="1" t="s">
         <v>842</v>
       </c>
+      <c r="O70" s="1"/>
       <c r="P70" s="1">
         <v>1</v>
       </c>
+      <c r="Q70" s="1"/>
       <c r="R70" s="1">
         <v>3</v>
       </c>
@@ -21079,18 +21441,28 @@
       <c r="AJ70" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AK70" s="1"/>
+      <c r="AN70" s="1"/>
       <c r="AO70" s="1">
         <v>0</v>
       </c>
+      <c r="AP70" s="1"/>
+      <c r="AQ70" s="1"/>
       <c r="AR70" s="1" t="s">
         <v>843</v>
       </c>
       <c r="AS70" s="1">
         <v>110</v>
       </c>
+      <c r="AT70" s="1"/>
+      <c r="AU70" s="6"/>
       <c r="AV70" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW70" s="1"/>
+      <c r="AX70" s="1"/>
+      <c r="AY70" s="1"/>
+      <c r="AZ70" s="1"/>
       <c r="BA70" s="1" t="s">
         <v>49</v>
       </c>
@@ -21153,6 +21525,7 @@
       <c r="P71" s="1">
         <v>1</v>
       </c>
+      <c r="Q71" s="1"/>
       <c r="R71" s="1">
         <v>2</v>
       </c>
@@ -21204,12 +21577,14 @@
       <c r="AL71" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN71" s="1"/>
       <c r="AO71" s="1">
         <v>0</v>
       </c>
       <c r="AP71" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ71" s="1"/>
       <c r="AR71" s="1">
         <v>169</v>
       </c>
@@ -21231,6 +21606,8 @@
       <c r="AX71" s="1">
         <v>38</v>
       </c>
+      <c r="AY71" s="1"/>
+      <c r="AZ71" s="1"/>
       <c r="BA71" s="1" t="s">
         <v>851</v>
       </c>
@@ -21351,14 +21728,16 @@
         <v>2174</v>
       </c>
       <c r="AL72" s="1" t="s">
-        <v>2786</v>
-      </c>
+        <v>2777</v>
+      </c>
+      <c r="AN72" s="1"/>
       <c r="AO72" s="1">
         <v>0</v>
       </c>
       <c r="AP72" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ72" s="1"/>
       <c r="AR72" s="1">
         <v>324</v>
       </c>
@@ -21368,6 +21747,12 @@
       <c r="AT72" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU72" s="6"/>
+      <c r="AV72" s="1"/>
+      <c r="AW72" s="1"/>
+      <c r="AX72" s="1"/>
+      <c r="AY72" s="1"/>
+      <c r="AZ72" s="1"/>
       <c r="BA72" s="1" t="s">
         <v>157</v>
       </c>
@@ -21433,6 +21818,7 @@
       <c r="Q73" s="1" t="s">
         <v>822</v>
       </c>
+      <c r="R73" s="1"/>
       <c r="S73" s="1" t="s">
         <v>39</v>
       </c>
@@ -21472,12 +21858,16 @@
       <c r="AI73" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AJ73" s="1"/>
+      <c r="AK73" s="1"/>
+      <c r="AN73" s="1"/>
       <c r="AO73" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AP73" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ73" s="1"/>
       <c r="AR73" s="1">
         <v>428</v>
       </c>
@@ -21487,9 +21877,14 @@
       <c r="AT73" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU73" s="6"/>
       <c r="AV73" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW73" s="1"/>
+      <c r="AX73" s="1"/>
+      <c r="AY73" s="1"/>
+      <c r="AZ73" s="1"/>
       <c r="BA73" s="1" t="s">
         <v>39</v>
       </c>
@@ -21555,6 +21950,7 @@
       <c r="Q74" s="1" t="s">
         <v>824</v>
       </c>
+      <c r="R74" s="1"/>
       <c r="S74" s="1" t="s">
         <v>39</v>
       </c>
@@ -21594,12 +21990,16 @@
       <c r="AI74" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AJ74" s="1"/>
+      <c r="AK74" s="1"/>
+      <c r="AN74" s="1"/>
       <c r="AO74" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AP74" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ74" s="1"/>
       <c r="AR74" s="1">
         <v>422</v>
       </c>
@@ -21609,9 +22009,14 @@
       <c r="AT74" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU74" s="6"/>
       <c r="AV74" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW74" s="1"/>
+      <c r="AX74" s="1"/>
+      <c r="AY74" s="1"/>
+      <c r="AZ74" s="1"/>
       <c r="BA74" s="1" t="s">
         <v>39</v>
       </c>
@@ -21674,6 +22079,7 @@
       <c r="P75" s="1">
         <v>1</v>
       </c>
+      <c r="Q75" s="1"/>
       <c r="R75" s="1">
         <v>2</v>
       </c>
@@ -21723,14 +22129,16 @@
         <v>2148</v>
       </c>
       <c r="AL75" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN75" s="1"/>
       <c r="AO75" s="1">
         <v>0</v>
       </c>
       <c r="AP75" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ75" s="1"/>
       <c r="AR75" s="1">
         <v>284</v>
       </c>
@@ -21752,6 +22160,8 @@
       <c r="AX75" s="1">
         <v>76.099999999999994</v>
       </c>
+      <c r="AY75" s="1"/>
+      <c r="AZ75" s="1"/>
       <c r="BA75" s="1" t="s">
         <v>49</v>
       </c>
@@ -21868,12 +22278,14 @@
       <c r="AL76" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN76" s="1"/>
       <c r="AO76" s="1">
         <v>0</v>
       </c>
       <c r="AP76" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ76" s="1"/>
       <c r="AR76" s="1">
         <v>348</v>
       </c>
@@ -21895,6 +22307,8 @@
       <c r="AX76" s="1">
         <v>52.9</v>
       </c>
+      <c r="AY76" s="1"/>
+      <c r="AZ76" s="1"/>
       <c r="BA76" s="1" t="s">
         <v>39</v>
       </c>
@@ -22009,20 +22423,29 @@
         <v>2176</v>
       </c>
       <c r="AL77" s="1" t="s">
-        <v>2787</v>
-      </c>
+        <v>2778</v>
+      </c>
+      <c r="AN77" s="1"/>
       <c r="AO77" s="1">
         <v>0</v>
       </c>
       <c r="AP77" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ77" s="1"/>
       <c r="AR77" s="1">
         <v>1141</v>
       </c>
       <c r="AS77" s="1">
         <v>1141</v>
       </c>
+      <c r="AT77" s="1"/>
+      <c r="AU77" s="6"/>
+      <c r="AV77" s="1"/>
+      <c r="AW77" s="1"/>
+      <c r="AX77" s="1"/>
+      <c r="AY77" s="1"/>
+      <c r="AZ77" s="1"/>
       <c r="BA77" s="1" t="s">
         <v>39</v>
       </c>
@@ -22137,20 +22560,29 @@
         <v>2176</v>
       </c>
       <c r="AL78" s="1" t="s">
-        <v>2787</v>
-      </c>
+        <v>2778</v>
+      </c>
+      <c r="AN78" s="1"/>
       <c r="AO78" s="1">
         <v>0</v>
       </c>
       <c r="AP78" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ78" s="1"/>
       <c r="AR78" s="1">
         <v>1131</v>
       </c>
       <c r="AS78" s="1">
         <v>1131</v>
       </c>
+      <c r="AT78" s="1"/>
+      <c r="AU78" s="6"/>
+      <c r="AV78" s="1"/>
+      <c r="AW78" s="1"/>
+      <c r="AX78" s="1"/>
+      <c r="AY78" s="1"/>
+      <c r="AZ78" s="1"/>
       <c r="BA78" s="1" t="s">
         <v>39</v>
       </c>
@@ -22252,6 +22684,7 @@
       <c r="AC79" s="1">
         <v>0</v>
       </c>
+      <c r="AD79" s="1"/>
       <c r="AI79" s="1">
         <v>1</v>
       </c>
@@ -22262,14 +22695,16 @@
         <v>2177</v>
       </c>
       <c r="AL79" s="1" t="s">
-        <v>2787</v>
-      </c>
+        <v>2778</v>
+      </c>
+      <c r="AN79" s="1"/>
       <c r="AO79" s="1">
         <v>0</v>
       </c>
       <c r="AP79" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ79" s="1"/>
       <c r="AR79" s="1">
         <v>515</v>
       </c>
@@ -22279,6 +22714,7 @@
       <c r="AT79" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU79" s="6"/>
       <c r="AV79" s="1" t="s">
         <v>891</v>
       </c>
@@ -22288,6 +22724,8 @@
       <c r="AX79" s="1">
         <v>50</v>
       </c>
+      <c r="AY79" s="1"/>
+      <c r="AZ79" s="1"/>
       <c r="BA79" s="1" t="s">
         <v>49</v>
       </c>
@@ -22350,6 +22788,7 @@
       <c r="P80" s="1">
         <v>1</v>
       </c>
+      <c r="Q80" s="1"/>
       <c r="R80" s="1">
         <v>3</v>
       </c>
@@ -22386,6 +22825,7 @@
       <c r="AC80" s="1">
         <v>0</v>
       </c>
+      <c r="AD80" s="1"/>
       <c r="AI80" s="1">
         <v>1</v>
       </c>
@@ -22396,14 +22836,16 @@
         <v>2178</v>
       </c>
       <c r="AL80" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN80" s="1"/>
       <c r="AO80" s="1">
         <v>0</v>
       </c>
       <c r="AP80" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ80" s="1"/>
       <c r="AR80" s="1">
         <v>505</v>
       </c>
@@ -22425,6 +22867,8 @@
       <c r="AX80" s="1">
         <v>66.3</v>
       </c>
+      <c r="AY80" s="1"/>
+      <c r="AZ80" s="1"/>
       <c r="BA80" s="1" t="s">
         <v>2227</v>
       </c>
@@ -22541,9 +22985,12 @@
       <c r="AL81" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN81" s="1"/>
       <c r="AO81" s="1">
         <v>0</v>
       </c>
+      <c r="AP81" s="1"/>
+      <c r="AQ81" s="1"/>
       <c r="AR81" s="1">
         <v>246</v>
       </c>
@@ -22553,9 +23000,14 @@
       <c r="AT81" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU81" s="6"/>
       <c r="AV81" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW81" s="1"/>
+      <c r="AX81" s="1"/>
+      <c r="AY81" s="1"/>
+      <c r="AZ81" s="1"/>
       <c r="BA81" s="1" t="s">
         <v>907</v>
       </c>
@@ -22664,7 +23116,7 @@
         <v>2117</v>
       </c>
       <c r="AF82" s="1" t="s">
-        <v>2748</v>
+        <v>2767</v>
       </c>
       <c r="AI82" s="1">
         <v>1</v>
@@ -22678,6 +23130,7 @@
       <c r="AL82" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN82" s="1"/>
       <c r="AO82" s="1">
         <v>1</v>
       </c>
@@ -22696,9 +23149,14 @@
       <c r="AT82" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU82" s="6"/>
       <c r="AV82" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW82" s="1"/>
+      <c r="AX82" s="1"/>
+      <c r="AY82" s="1"/>
+      <c r="AZ82" s="1"/>
       <c r="BA82" s="1" t="s">
         <v>907</v>
       </c>
@@ -22761,6 +23219,7 @@
       <c r="P83" s="1">
         <v>1</v>
       </c>
+      <c r="Q83" s="1"/>
       <c r="R83" s="1">
         <v>2</v>
       </c>
@@ -22804,7 +23263,7 @@
         <v>2144</v>
       </c>
       <c r="AF83" s="1" t="s">
-        <v>2753</v>
+        <v>2788</v>
       </c>
       <c r="AI83" s="1">
         <v>1</v>
@@ -22816,14 +23275,16 @@
         <v>915</v>
       </c>
       <c r="AL83" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN83" s="1"/>
       <c r="AO83" s="1">
         <v>0</v>
       </c>
       <c r="AP83" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ83" s="1"/>
       <c r="AR83" s="1">
         <v>334</v>
       </c>
@@ -22845,6 +23306,10 @@
       <c r="AX83" s="1">
         <v>57.7</v>
       </c>
+      <c r="AY83" s="1"/>
+      <c r="AZ83" s="1"/>
+      <c r="BA83" s="1"/>
+      <c r="BB83" s="1"/>
       <c r="BC83" s="1">
         <v>0</v>
       </c>
@@ -22953,14 +23418,16 @@
         <v>923</v>
       </c>
       <c r="AL84" s="1" t="s">
-        <v>2774</v>
-      </c>
+        <v>2765</v>
+      </c>
+      <c r="AN84" s="1"/>
       <c r="AO84" s="1">
         <v>0</v>
       </c>
       <c r="AP84" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ84" s="1"/>
       <c r="AR84" s="1">
         <v>530</v>
       </c>
@@ -22970,9 +23437,14 @@
       <c r="AT84" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU84" s="6"/>
       <c r="AV84" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW84" s="1"/>
+      <c r="AX84" s="1"/>
+      <c r="AY84" s="1"/>
+      <c r="AZ84" s="1"/>
       <c r="BA84" s="1" t="s">
         <v>49</v>
       </c>
@@ -23029,6 +23501,7 @@
       <c r="N85" s="1" t="s">
         <v>930</v>
       </c>
+      <c r="O85" s="1"/>
       <c r="P85" s="1">
         <v>1</v>
       </c>
@@ -23078,7 +23551,7 @@
         <v>2145</v>
       </c>
       <c r="AF85" s="1" t="s">
-        <v>2755</v>
+        <v>2752</v>
       </c>
       <c r="AI85" s="1">
         <v>1</v>
@@ -23090,14 +23563,16 @@
         <v>2179</v>
       </c>
       <c r="AL85" s="1" t="s">
-        <v>2777</v>
-      </c>
+        <v>2768</v>
+      </c>
+      <c r="AN85" s="1"/>
       <c r="AO85" s="1">
         <v>0</v>
       </c>
       <c r="AP85" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ85" s="1"/>
       <c r="AR85" s="1">
         <v>304</v>
       </c>
@@ -23119,6 +23594,10 @@
       <c r="AX85" s="1">
         <v>39.799999999999997</v>
       </c>
+      <c r="AY85" s="1"/>
+      <c r="AZ85" s="1"/>
+      <c r="BA85" s="1"/>
+      <c r="BB85" s="1"/>
       <c r="BC85" s="1">
         <v>0</v>
       </c>
@@ -23221,7 +23700,7 @@
         <v>2131</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>2756</v>
+        <v>2789</v>
       </c>
       <c r="AI86" s="1">
         <v>1</v>
@@ -23233,11 +23712,14 @@
         <v>940</v>
       </c>
       <c r="AL86" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN86" s="1"/>
       <c r="AO86" s="1">
         <v>0</v>
       </c>
+      <c r="AP86" s="1"/>
+      <c r="AQ86" s="1"/>
       <c r="AR86" s="1">
         <v>159</v>
       </c>
@@ -23259,6 +23741,8 @@
       <c r="AX86" s="1">
         <v>35</v>
       </c>
+      <c r="AY86" s="1"/>
+      <c r="AZ86" s="1"/>
       <c r="BA86" s="1" t="s">
         <v>49</v>
       </c>
@@ -23294,6 +23778,7 @@
       <c r="G87" s="1" t="s">
         <v>1994</v>
       </c>
+      <c r="H87" s="1"/>
       <c r="I87" s="1">
         <v>1</v>
       </c>
@@ -23364,7 +23849,7 @@
         <v>947</v>
       </c>
       <c r="AF87" s="1" t="s">
-        <v>2757</v>
+        <v>2753</v>
       </c>
       <c r="AI87" s="1">
         <v>1</v>
@@ -23376,14 +23861,16 @@
         <v>940</v>
       </c>
       <c r="AL87" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN87" s="1"/>
       <c r="AO87" s="1">
         <v>0</v>
       </c>
       <c r="AP87" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ87" s="1"/>
       <c r="AR87" s="1">
         <v>336</v>
       </c>
@@ -23405,6 +23892,8 @@
       <c r="AX87" s="1">
         <v>55.4</v>
       </c>
+      <c r="AY87" s="1"/>
+      <c r="AZ87" s="1"/>
       <c r="BA87" s="1" t="s">
         <v>49</v>
       </c>
@@ -23512,8 +24001,8 @@
       <c r="AE88" s="11" t="s">
         <v>2726</v>
       </c>
-      <c r="AF88" s="10" t="s">
-        <v>2758</v>
+      <c r="AF88" s="1" t="s">
+        <v>2790</v>
       </c>
       <c r="AI88" s="1">
         <v>0</v>
@@ -23521,12 +24010,15 @@
       <c r="AJ88" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AK88" s="1"/>
+      <c r="AN88" s="1"/>
       <c r="AO88" s="1">
         <v>0</v>
       </c>
       <c r="AP88" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ88" s="1"/>
       <c r="AR88" s="1" t="s">
         <v>958</v>
       </c>
@@ -23536,6 +24028,7 @@
       <c r="AT88" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU88" s="6"/>
       <c r="AV88" s="1" t="s">
         <v>2235</v>
       </c>
@@ -23545,6 +24038,8 @@
       <c r="AX88" s="1">
         <v>26.05</v>
       </c>
+      <c r="AY88" s="1"/>
+      <c r="AZ88" s="1"/>
       <c r="BA88" s="1" t="s">
         <v>39</v>
       </c>
@@ -23653,7 +24148,7 @@
         <v>2132</v>
       </c>
       <c r="AF89" s="1" t="s">
-        <v>2748</v>
+        <v>2767</v>
       </c>
       <c r="AI89" s="1">
         <v>1</v>
@@ -23665,14 +24160,16 @@
         <v>940</v>
       </c>
       <c r="AL89" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN89" s="1"/>
       <c r="AO89" s="1">
         <v>0</v>
       </c>
       <c r="AP89" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ89" s="1"/>
       <c r="AR89" s="1">
         <v>241</v>
       </c>
@@ -23682,6 +24179,7 @@
       <c r="AT89" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU89" s="6"/>
       <c r="AV89" s="1" t="s">
         <v>966</v>
       </c>
@@ -23691,6 +24189,8 @@
       <c r="AX89" s="1">
         <v>36.93</v>
       </c>
+      <c r="AY89" s="1"/>
+      <c r="AZ89" s="1"/>
       <c r="BA89" s="1" t="s">
         <v>49</v>
       </c>
@@ -23805,14 +24305,16 @@
         <v>923</v>
       </c>
       <c r="AL90" s="1" t="s">
-        <v>2774</v>
-      </c>
+        <v>2765</v>
+      </c>
+      <c r="AN90" s="1"/>
       <c r="AO90" s="1">
         <v>0</v>
       </c>
       <c r="AP90" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ90" s="1"/>
       <c r="AR90" s="1">
         <v>335</v>
       </c>
@@ -23834,6 +24336,8 @@
       <c r="AX90" s="1">
         <v>75</v>
       </c>
+      <c r="AY90" s="1"/>
+      <c r="AZ90" s="1"/>
       <c r="BA90" s="1" t="s">
         <v>49</v>
       </c>
@@ -23890,6 +24394,7 @@
       <c r="N91" s="1" t="s">
         <v>979</v>
       </c>
+      <c r="O91" s="1"/>
       <c r="P91" s="1">
         <v>1</v>
       </c>
@@ -23945,14 +24450,16 @@
         <v>2160</v>
       </c>
       <c r="AL91" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN91" s="1"/>
       <c r="AO91" s="1">
         <v>0</v>
       </c>
       <c r="AP91" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ91" s="1"/>
       <c r="AR91" s="1">
         <v>200</v>
       </c>
@@ -23962,6 +24469,7 @@
       <c r="AT91" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU91" s="6"/>
       <c r="AV91" s="1" t="s">
         <v>981</v>
       </c>
@@ -23971,6 +24479,10 @@
       <c r="AX91" s="1">
         <v>50</v>
       </c>
+      <c r="AY91" s="1"/>
+      <c r="AZ91" s="1"/>
+      <c r="BA91" s="1"/>
+      <c r="BB91" s="1"/>
       <c r="BC91" s="1" t="s">
         <v>39</v>
       </c>
@@ -24081,12 +24593,14 @@
       <c r="AL92" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN92" s="1"/>
       <c r="AO92" s="1">
         <v>0</v>
       </c>
       <c r="AP92" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ92" s="1"/>
       <c r="AR92" s="1">
         <v>124</v>
       </c>
@@ -24108,6 +24622,8 @@
       <c r="AX92" s="1">
         <v>41.1</v>
       </c>
+      <c r="AY92" s="1"/>
+      <c r="AZ92" s="1"/>
       <c r="BA92" s="1" t="s">
         <v>990</v>
       </c>
@@ -24224,12 +24740,14 @@
       <c r="AL93" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN93" s="1"/>
       <c r="AO93" s="1">
         <v>0</v>
       </c>
       <c r="AP93" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ93" s="1"/>
       <c r="AR93" s="1">
         <v>329</v>
       </c>
@@ -24239,6 +24757,7 @@
       <c r="AT93" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU93" s="6"/>
       <c r="AV93" s="1" t="s">
         <v>999</v>
       </c>
@@ -24248,6 +24767,8 @@
       <c r="AX93" s="1">
         <v>47.72</v>
       </c>
+      <c r="AY93" s="1"/>
+      <c r="AZ93" s="1"/>
       <c r="BA93" s="1" t="s">
         <v>1000</v>
       </c>
@@ -24304,6 +24825,7 @@
       <c r="N94" s="1" t="s">
         <v>1006</v>
       </c>
+      <c r="O94" s="1"/>
       <c r="P94" s="1">
         <v>1</v>
       </c>
@@ -24352,8 +24874,8 @@
       <c r="AE94" s="11" t="s">
         <v>2120</v>
       </c>
-      <c r="AF94" s="10" t="s">
-        <v>2742</v>
+      <c r="AF94" s="1" t="s">
+        <v>2791</v>
       </c>
       <c r="AI94" s="1">
         <v>1</v>
@@ -24367,18 +24889,22 @@
       <c r="AL94" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN94" s="1"/>
       <c r="AO94" s="1">
         <v>0</v>
       </c>
       <c r="AP94" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ94" s="1"/>
       <c r="AR94" s="1">
         <v>435</v>
       </c>
       <c r="AS94" s="1">
         <v>435</v>
       </c>
+      <c r="AT94" s="1"/>
+      <c r="AU94" s="6"/>
       <c r="AV94" s="1" t="s">
         <v>1007</v>
       </c>
@@ -24388,6 +24914,7 @@
       <c r="AX94" s="1">
         <v>45</v>
       </c>
+      <c r="AY94" s="1"/>
       <c r="AZ94" s="1">
         <v>1</v>
       </c>
@@ -24397,6 +24924,7 @@
       <c r="BB94" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="BC94" s="1"/>
       <c r="BD94" s="1" t="s">
         <v>2248</v>
       </c>
@@ -24496,7 +25024,7 @@
         <v>2121</v>
       </c>
       <c r="AF95" s="1" t="s">
-        <v>2759</v>
+        <v>2754</v>
       </c>
       <c r="AI95" s="1">
         <v>1</v>
@@ -24510,12 +25038,14 @@
       <c r="AL95" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN95" s="1"/>
       <c r="AO95" s="1">
         <v>0</v>
       </c>
       <c r="AP95" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ95" s="1"/>
       <c r="AR95" s="1">
         <v>525</v>
       </c>
@@ -24537,6 +25067,10 @@
       <c r="AX95" s="1">
         <v>50.5</v>
       </c>
+      <c r="AY95" s="1"/>
+      <c r="AZ95" s="1"/>
+      <c r="BA95" s="1"/>
+      <c r="BB95" s="1"/>
       <c r="BC95" s="1">
         <v>0</v>
       </c>
@@ -24587,6 +25121,7 @@
       <c r="N96" s="1" t="s">
         <v>1020</v>
       </c>
+      <c r="O96" s="1"/>
       <c r="P96" s="1">
         <v>1</v>
       </c>
@@ -24642,11 +25177,14 @@
         <v>2180</v>
       </c>
       <c r="AL96" s="1" t="s">
-        <v>2788</v>
-      </c>
+        <v>2779</v>
+      </c>
+      <c r="AN96" s="1"/>
       <c r="AO96" s="1">
         <v>0</v>
       </c>
+      <c r="AP96" s="1"/>
+      <c r="AQ96" s="1"/>
       <c r="AR96" s="1">
         <v>390</v>
       </c>
@@ -24656,9 +25194,14 @@
       <c r="AT96" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU96" s="6"/>
       <c r="AV96" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW96" s="1"/>
+      <c r="AX96" s="1"/>
+      <c r="AY96" s="1"/>
+      <c r="AZ96" s="1"/>
       <c r="BA96" s="1" t="s">
         <v>39</v>
       </c>
@@ -24775,12 +25318,14 @@
       <c r="AL97" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN97" s="1"/>
       <c r="AO97" s="1">
         <v>0</v>
       </c>
       <c r="AP97" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ97" s="1"/>
       <c r="AR97" s="1">
         <v>265</v>
       </c>
@@ -24790,6 +25335,7 @@
       <c r="AT97" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU97" s="6"/>
       <c r="AV97" s="1" t="s">
         <v>1028</v>
       </c>
@@ -24799,6 +25345,8 @@
       <c r="AX97" s="1">
         <v>51.3</v>
       </c>
+      <c r="AY97" s="1"/>
+      <c r="AZ97" s="1"/>
       <c r="BA97" s="1" t="s">
         <v>1029</v>
       </c>
@@ -24907,7 +25455,7 @@
         <v>2134</v>
       </c>
       <c r="AF98" s="1" t="s">
-        <v>2760</v>
+        <v>2779</v>
       </c>
       <c r="AI98" s="1">
         <v>1</v>
@@ -24921,12 +25469,14 @@
       <c r="AL98" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN98" s="1"/>
       <c r="AO98" s="1">
         <v>0</v>
       </c>
       <c r="AP98" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ98" s="1"/>
       <c r="AR98" s="1">
         <v>285</v>
       </c>
@@ -24948,6 +25498,8 @@
       <c r="AX98" s="1">
         <v>49.47</v>
       </c>
+      <c r="AY98" s="1"/>
+      <c r="AZ98" s="1"/>
       <c r="BA98" s="1" t="s">
         <v>1039</v>
       </c>
@@ -25062,14 +25614,16 @@
         <v>2181</v>
       </c>
       <c r="AL99" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN99" s="1"/>
       <c r="AO99" s="1">
         <v>0</v>
       </c>
       <c r="AP99" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ99" s="1"/>
       <c r="AR99" s="1">
         <v>517</v>
       </c>
@@ -25091,9 +25645,12 @@
       <c r="AX99" s="1">
         <v>51.3</v>
       </c>
+      <c r="AY99" s="1"/>
+      <c r="AZ99" s="1"/>
       <c r="BA99" s="1" t="s">
         <v>1046</v>
       </c>
+      <c r="BB99" s="1"/>
       <c r="BC99" s="1">
         <v>0</v>
       </c>
@@ -25196,7 +25753,7 @@
         <v>947</v>
       </c>
       <c r="AF100" s="1" t="s">
-        <v>2757</v>
+        <v>2753</v>
       </c>
       <c r="AI100" s="1">
         <v>0</v>
@@ -25204,6 +25761,8 @@
       <c r="AJ100" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AK100" s="1"/>
+      <c r="AN100" s="1"/>
       <c r="AO100" s="1">
         <v>1</v>
       </c>
@@ -25222,6 +25781,7 @@
       <c r="AT100" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU100" s="6"/>
       <c r="AV100" s="1" t="s">
         <v>1056</v>
       </c>
@@ -25231,6 +25791,8 @@
       <c r="AX100" s="1">
         <v>47.37</v>
       </c>
+      <c r="AY100" s="1"/>
+      <c r="AZ100" s="1"/>
       <c r="BA100" s="1" t="s">
         <v>1057</v>
       </c>
@@ -25339,7 +25901,7 @@
         <v>2122</v>
       </c>
       <c r="AF101" s="1" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="AI101" s="1">
         <v>0</v>
@@ -25347,12 +25909,15 @@
       <c r="AJ101" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AK101" s="1"/>
+      <c r="AN101" s="1"/>
       <c r="AO101" s="1">
         <v>0</v>
       </c>
       <c r="AP101" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ101" s="1"/>
       <c r="AR101" s="1">
         <v>629</v>
       </c>
@@ -25374,6 +25939,10 @@
       <c r="AX101" s="1">
         <v>62.5</v>
       </c>
+      <c r="AY101" s="1"/>
+      <c r="AZ101" s="1"/>
+      <c r="BA101" s="1"/>
+      <c r="BB101" s="1"/>
       <c r="BC101" s="1">
         <v>0</v>
       </c>
@@ -25457,9 +26026,11 @@
       <c r="Y102" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="Z102" s="1"/>
       <c r="AA102" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AB102" s="1"/>
       <c r="AC102" s="1">
         <v>0</v>
       </c>
@@ -25476,11 +26047,14 @@
         <v>283</v>
       </c>
       <c r="AL102" s="1" t="s">
-        <v>2774</v>
-      </c>
+        <v>2765</v>
+      </c>
+      <c r="AN102" s="1"/>
       <c r="AO102" s="1">
         <v>0</v>
       </c>
+      <c r="AP102" s="1"/>
+      <c r="AQ102" s="1"/>
       <c r="AR102" s="1">
         <v>118</v>
       </c>
@@ -25502,6 +26076,7 @@
       <c r="AX102" s="1">
         <v>52</v>
       </c>
+      <c r="AY102" s="1"/>
       <c r="AZ102" s="1">
         <v>1</v>
       </c>
@@ -25613,7 +26188,7 @@
         <v>2123</v>
       </c>
       <c r="AF103" s="1" t="s">
-        <v>2761</v>
+        <v>2755</v>
       </c>
       <c r="AI103" s="1">
         <v>1</v>
@@ -25625,14 +26200,16 @@
         <v>2724</v>
       </c>
       <c r="AL103" s="1" t="s">
-        <v>2788</v>
-      </c>
+        <v>2779</v>
+      </c>
+      <c r="AN103" s="1"/>
       <c r="AO103" s="1">
         <v>0</v>
       </c>
       <c r="AP103" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ103" s="1"/>
       <c r="AR103" s="1">
         <v>101</v>
       </c>
@@ -25654,6 +26231,8 @@
       <c r="AX103" s="1">
         <v>47</v>
       </c>
+      <c r="AY103" s="1"/>
+      <c r="AZ103" s="1"/>
       <c r="BA103" s="1" t="s">
         <v>49</v>
       </c>
@@ -25768,14 +26347,16 @@
         <v>2152</v>
       </c>
       <c r="AL104" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN104" s="1"/>
       <c r="AO104" s="1">
         <v>0</v>
       </c>
       <c r="AP104" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ104" s="1"/>
       <c r="AR104" s="1">
         <v>443</v>
       </c>
@@ -25791,6 +26372,10 @@
       <c r="AV104" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW104" s="1"/>
+      <c r="AX104" s="1"/>
+      <c r="AY104" s="1"/>
+      <c r="AZ104" s="1"/>
       <c r="BA104" s="1" t="s">
         <v>1094</v>
       </c>
@@ -25847,6 +26432,7 @@
       <c r="N105" s="1" t="s">
         <v>1053</v>
       </c>
+      <c r="O105" s="1"/>
       <c r="P105" s="1">
         <v>1</v>
       </c>
@@ -25883,6 +26469,7 @@
       <c r="AA105" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AB105" s="1"/>
       <c r="AC105" s="1">
         <v>1</v>
       </c>
@@ -25907,12 +26494,14 @@
       <c r="AL105" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN105" s="1"/>
       <c r="AO105" s="1">
         <v>0</v>
       </c>
       <c r="AP105" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ105" s="1"/>
       <c r="AR105" s="1">
         <v>257</v>
       </c>
@@ -25928,6 +26517,12 @@
       <c r="AV105" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW105" s="1"/>
+      <c r="AX105" s="1"/>
+      <c r="AY105" s="1"/>
+      <c r="AZ105" s="1"/>
+      <c r="BA105" s="1"/>
+      <c r="BB105" s="1"/>
       <c r="BC105" s="1">
         <v>3</v>
       </c>
@@ -25978,6 +26573,7 @@
       <c r="N106" s="1" t="s">
         <v>1053</v>
       </c>
+      <c r="O106" s="1"/>
       <c r="P106" s="1">
         <v>1</v>
       </c>
@@ -26033,14 +26629,16 @@
         <v>2719</v>
       </c>
       <c r="AL106" s="1" t="s">
-        <v>2788</v>
-      </c>
+        <v>2779</v>
+      </c>
+      <c r="AN106" s="1"/>
       <c r="AO106" s="1">
         <v>0</v>
       </c>
       <c r="AP106" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ106" s="1"/>
       <c r="AR106" s="1">
         <v>320</v>
       </c>
@@ -26062,6 +26660,10 @@
       <c r="AX106" s="1">
         <v>83.7</v>
       </c>
+      <c r="AY106" s="1"/>
+      <c r="AZ106" s="1"/>
+      <c r="BA106" s="1"/>
+      <c r="BB106" s="1"/>
       <c r="BC106" s="1">
         <v>0</v>
       </c>
@@ -26170,14 +26772,16 @@
         <v>2182</v>
       </c>
       <c r="AL107" s="1" t="s">
-        <v>2780</v>
-      </c>
+        <v>2771</v>
+      </c>
+      <c r="AN107" s="1"/>
       <c r="AO107" s="1">
         <v>0</v>
       </c>
       <c r="AP107" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ107" s="1"/>
       <c r="AR107" s="1">
         <v>214</v>
       </c>
@@ -26199,6 +26803,8 @@
       <c r="AX107" s="1">
         <v>47.7</v>
       </c>
+      <c r="AY107" s="1"/>
+      <c r="AZ107" s="1"/>
       <c r="BA107" s="1" t="s">
         <v>1115</v>
       </c>
@@ -26255,6 +26861,7 @@
       <c r="N108" s="1" t="s">
         <v>1121</v>
       </c>
+      <c r="O108" s="1"/>
       <c r="P108" s="1">
         <v>1</v>
       </c>
@@ -26297,6 +26904,7 @@
       <c r="AC108" s="1">
         <v>0</v>
       </c>
+      <c r="AD108" s="1"/>
       <c r="AI108" s="1">
         <v>1</v>
       </c>
@@ -26307,14 +26915,16 @@
         <v>940</v>
       </c>
       <c r="AL108" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN108" s="1"/>
       <c r="AO108" s="1">
         <v>0</v>
       </c>
       <c r="AP108" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ108" s="1"/>
       <c r="AR108" s="1">
         <v>676</v>
       </c>
@@ -26336,6 +26946,8 @@
       <c r="AX108" s="1">
         <v>78.099999999999994</v>
       </c>
+      <c r="AY108" s="1"/>
+      <c r="AZ108" s="1"/>
       <c r="BA108" s="1" t="s">
         <v>49</v>
       </c>
@@ -26452,12 +27064,14 @@
       <c r="AL109" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN109" s="1"/>
       <c r="AO109" s="1">
         <v>0</v>
       </c>
       <c r="AP109" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ109" s="1"/>
       <c r="AR109" s="1">
         <v>209</v>
       </c>
@@ -26479,6 +27093,8 @@
       <c r="AX109" s="1">
         <v>86.1</v>
       </c>
+      <c r="AY109" s="1"/>
+      <c r="AZ109" s="1"/>
       <c r="BA109" s="1" t="s">
         <v>1131</v>
       </c>
@@ -26587,7 +27203,7 @@
         <v>2124</v>
       </c>
       <c r="AF110" s="1" t="s">
-        <v>2762</v>
+        <v>2756</v>
       </c>
       <c r="AI110" s="1">
         <v>1</v>
@@ -26601,9 +27217,12 @@
       <c r="AL110" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN110" s="1"/>
       <c r="AO110" s="1">
         <v>0</v>
       </c>
+      <c r="AP110" s="1"/>
+      <c r="AQ110" s="1"/>
       <c r="AR110" s="1">
         <v>161</v>
       </c>
@@ -26625,9 +27244,12 @@
       <c r="AX110" s="1">
         <v>40.369999999999997</v>
       </c>
+      <c r="AY110" s="1"/>
       <c r="AZ110" s="1">
         <v>1.86</v>
       </c>
+      <c r="BA110" s="1"/>
+      <c r="BB110" s="1"/>
       <c r="BC110" s="1">
         <v>0</v>
       </c>
@@ -26742,14 +27364,16 @@
         <v>940</v>
       </c>
       <c r="AL111" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN111" s="1"/>
       <c r="AO111" s="1">
         <v>0</v>
       </c>
       <c r="AP111" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ111" s="1"/>
       <c r="AR111" s="1">
         <v>780</v>
       </c>
@@ -26771,6 +27395,7 @@
       <c r="AX111" s="1">
         <v>51.2</v>
       </c>
+      <c r="AY111" s="1"/>
       <c r="AZ111" s="1">
         <v>5</v>
       </c>
@@ -26882,7 +27507,7 @@
         <v>1152</v>
       </c>
       <c r="AF112" s="1" t="s">
-        <v>2763</v>
+        <v>2757</v>
       </c>
       <c r="AI112" s="1">
         <v>1</v>
@@ -26894,14 +27519,16 @@
         <v>940</v>
       </c>
       <c r="AL112" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN112" s="1"/>
       <c r="AO112" s="1">
         <v>0</v>
       </c>
       <c r="AP112" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ112" s="1"/>
       <c r="AR112" s="1">
         <v>240</v>
       </c>
@@ -26923,6 +27550,10 @@
       <c r="AX112" s="1">
         <v>58.33</v>
       </c>
+      <c r="AY112" s="1"/>
+      <c r="AZ112" s="1"/>
+      <c r="BA112" s="1"/>
+      <c r="BB112" s="1"/>
       <c r="BC112" s="1">
         <v>3</v>
       </c>
@@ -27033,12 +27664,14 @@
       <c r="AL113" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN113" s="1"/>
       <c r="AO113" s="1">
         <v>0</v>
       </c>
       <c r="AP113" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ113" s="1"/>
       <c r="AR113" s="1">
         <v>322</v>
       </c>
@@ -27060,6 +27693,10 @@
       <c r="AX113" s="1">
         <v>60.1</v>
       </c>
+      <c r="AY113" s="1"/>
+      <c r="AZ113" s="1"/>
+      <c r="BA113" s="1"/>
+      <c r="BB113" s="1"/>
       <c r="BC113" s="1">
         <v>0</v>
       </c>
@@ -27170,12 +27807,14 @@
       <c r="AL114" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN114" s="1"/>
       <c r="AO114" s="1">
         <v>0</v>
       </c>
       <c r="AP114" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ114" s="1"/>
       <c r="AR114" s="1">
         <v>307</v>
       </c>
@@ -27197,6 +27836,8 @@
       <c r="AX114" s="1">
         <v>65</v>
       </c>
+      <c r="AY114" s="1"/>
+      <c r="AZ114" s="1"/>
       <c r="BA114" s="1" t="s">
         <v>39</v>
       </c>
@@ -27313,12 +27954,14 @@
       <c r="AL115" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN115" s="1"/>
       <c r="AO115" s="1">
         <v>0</v>
       </c>
       <c r="AP115" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ115" s="1"/>
       <c r="AR115" s="1">
         <v>428</v>
       </c>
@@ -27340,6 +27983,10 @@
       <c r="AX115" s="1">
         <v>51.4</v>
       </c>
+      <c r="AY115" s="1"/>
+      <c r="AZ115" s="1"/>
+      <c r="BA115" s="1"/>
+      <c r="BB115" s="1"/>
       <c r="BC115" s="1">
         <v>1</v>
       </c>
@@ -27390,6 +28037,7 @@
       <c r="N116" s="1" t="s">
         <v>1174</v>
       </c>
+      <c r="O116" s="1"/>
       <c r="P116" s="1">
         <v>1</v>
       </c>
@@ -27439,7 +28087,7 @@
         <v>1175</v>
       </c>
       <c r="AF116" s="1" t="s">
-        <v>2759</v>
+        <v>2754</v>
       </c>
       <c r="AI116" s="1">
         <v>1</v>
@@ -27453,12 +28101,14 @@
       <c r="AL116" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN116" s="1"/>
       <c r="AO116" s="1">
         <v>0</v>
       </c>
       <c r="AP116" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ116" s="1"/>
       <c r="AR116" s="1">
         <v>95</v>
       </c>
@@ -27480,6 +28130,8 @@
       <c r="AX116" s="1">
         <v>42</v>
       </c>
+      <c r="AY116" s="1"/>
+      <c r="AZ116" s="1"/>
       <c r="BA116" s="1" t="s">
         <v>393</v>
       </c>
@@ -27600,14 +28252,16 @@
         <v>2183</v>
       </c>
       <c r="AL117" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN117" s="1"/>
       <c r="AO117" s="1">
         <v>0</v>
       </c>
       <c r="AP117" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ117" s="1"/>
       <c r="AR117" s="1">
         <v>169</v>
       </c>
@@ -27629,6 +28283,8 @@
       <c r="AX117" s="1">
         <v>58</v>
       </c>
+      <c r="AY117" s="1"/>
+      <c r="AZ117" s="1"/>
       <c r="BA117" s="1" t="s">
         <v>49</v>
       </c>
@@ -27749,14 +28405,16 @@
         <v>2184</v>
       </c>
       <c r="AL118" s="1" t="s">
-        <v>2789</v>
-      </c>
+        <v>2780</v>
+      </c>
+      <c r="AN118" s="1"/>
       <c r="AO118" s="1">
         <v>0</v>
       </c>
       <c r="AP118" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ118" s="1"/>
       <c r="AR118" s="1">
         <v>22</v>
       </c>
@@ -27778,6 +28436,8 @@
       <c r="AX118" s="1">
         <v>63.37</v>
       </c>
+      <c r="AY118" s="1"/>
+      <c r="AZ118" s="1"/>
       <c r="BA118" s="1" t="s">
         <v>39</v>
       </c>
@@ -27892,14 +28552,16 @@
         <v>2185</v>
       </c>
       <c r="AL119" s="1" t="s">
-        <v>2777</v>
-      </c>
+        <v>2768</v>
+      </c>
+      <c r="AN119" s="1"/>
       <c r="AO119" s="1">
         <v>0</v>
       </c>
       <c r="AP119" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ119" s="1"/>
       <c r="AR119" s="1">
         <v>179</v>
       </c>
@@ -27921,6 +28583,8 @@
       <c r="AX119" s="1">
         <v>37</v>
       </c>
+      <c r="AY119" s="1"/>
+      <c r="AZ119" s="1"/>
       <c r="BA119" s="1" t="s">
         <v>39</v>
       </c>
@@ -28035,14 +28699,16 @@
         <v>2186</v>
       </c>
       <c r="AL120" s="1" t="s">
-        <v>2787</v>
-      </c>
+        <v>2778</v>
+      </c>
+      <c r="AN120" s="1"/>
       <c r="AO120" s="1">
         <v>0</v>
       </c>
       <c r="AP120" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ120" s="1"/>
       <c r="AR120" s="1">
         <v>536</v>
       </c>
@@ -28052,6 +28718,7 @@
       <c r="AT120" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU120" s="6"/>
       <c r="AV120" s="1" t="s">
         <v>1209</v>
       </c>
@@ -28061,6 +28728,8 @@
       <c r="AX120" s="1">
         <v>23.3</v>
       </c>
+      <c r="AY120" s="1"/>
+      <c r="AZ120" s="1"/>
       <c r="BA120" s="1" t="s">
         <v>1210</v>
       </c>
@@ -28177,12 +28846,14 @@
       <c r="AL121" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN121" s="1"/>
       <c r="AO121" s="1">
         <v>0</v>
       </c>
       <c r="AP121" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ121" s="1"/>
       <c r="AR121" s="1">
         <v>202</v>
       </c>
@@ -28204,6 +28875,8 @@
       <c r="AX121" s="1">
         <v>50.5</v>
       </c>
+      <c r="AY121" s="1"/>
+      <c r="AZ121" s="1"/>
       <c r="BA121" s="1" t="s">
         <v>49</v>
       </c>
@@ -28318,14 +28991,16 @@
         <v>2187</v>
       </c>
       <c r="AL122" s="1" t="s">
-        <v>2788</v>
-      </c>
+        <v>2779</v>
+      </c>
+      <c r="AN122" s="1"/>
       <c r="AO122" s="1">
         <v>0</v>
       </c>
       <c r="AP122" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ122" s="1"/>
       <c r="AR122" s="1">
         <v>221</v>
       </c>
@@ -28347,6 +29022,8 @@
       <c r="AX122" s="1">
         <v>41.2</v>
       </c>
+      <c r="AY122" s="1"/>
+      <c r="AZ122" s="1"/>
       <c r="BA122" s="1" t="s">
         <v>49</v>
       </c>
@@ -28461,14 +29138,16 @@
         <v>2188</v>
       </c>
       <c r="AL123" s="1" t="s">
-        <v>2788</v>
-      </c>
+        <v>2779</v>
+      </c>
+      <c r="AN123" s="1"/>
       <c r="AO123" s="1">
         <v>0</v>
       </c>
       <c r="AP123" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ123" s="1"/>
       <c r="AR123" s="1">
         <v>337</v>
       </c>
@@ -28490,6 +29169,10 @@
       <c r="AX123" s="1">
         <v>43.9</v>
       </c>
+      <c r="AY123" s="1"/>
+      <c r="AZ123" s="1"/>
+      <c r="BA123" s="1"/>
+      <c r="BB123" s="1"/>
       <c r="BC123" s="1">
         <v>3</v>
       </c>
@@ -28604,14 +29287,16 @@
         <v>2189</v>
       </c>
       <c r="AL124" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN124" s="1"/>
       <c r="AO124" s="1">
         <v>0</v>
       </c>
       <c r="AP124" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ124" s="1"/>
       <c r="AR124" s="1">
         <v>215</v>
       </c>
@@ -28633,6 +29318,8 @@
       <c r="AX124" s="1">
         <v>42.3</v>
       </c>
+      <c r="AY124" s="1"/>
+      <c r="AZ124" s="1"/>
       <c r="BA124" s="1" t="s">
         <v>1243</v>
       </c>
@@ -28747,14 +29434,16 @@
         <v>2132</v>
       </c>
       <c r="AL125" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN125" s="1"/>
       <c r="AO125" s="1">
         <v>0</v>
       </c>
       <c r="AP125" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ125" s="1"/>
       <c r="AR125" s="1">
         <v>180</v>
       </c>
@@ -28776,6 +29465,8 @@
       <c r="AX125" s="1">
         <v>39.5</v>
       </c>
+      <c r="AY125" s="1"/>
+      <c r="AZ125" s="1"/>
       <c r="BA125" s="1" t="s">
         <v>49</v>
       </c>
@@ -28890,14 +29581,16 @@
         <v>2136</v>
       </c>
       <c r="AL126" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN126" s="1"/>
       <c r="AO126" s="1">
         <v>0</v>
       </c>
       <c r="AP126" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ126" s="1"/>
       <c r="AR126" s="1">
         <v>17</v>
       </c>
@@ -28919,6 +29612,8 @@
       <c r="AX126" s="1">
         <v>70.59</v>
       </c>
+      <c r="AY126" s="1"/>
+      <c r="AZ126" s="1"/>
       <c r="BA126" s="1" t="s">
         <v>49</v>
       </c>
@@ -29033,14 +29728,16 @@
         <v>2191</v>
       </c>
       <c r="AL127" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN127" s="1"/>
       <c r="AO127" s="1">
         <v>0</v>
       </c>
       <c r="AP127" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ127" s="1"/>
       <c r="AR127" s="1">
         <v>559</v>
       </c>
@@ -29062,6 +29759,8 @@
       <c r="AX127" s="1">
         <v>49.2</v>
       </c>
+      <c r="AY127" s="1"/>
+      <c r="AZ127" s="1"/>
       <c r="BA127" s="1" t="s">
         <v>49</v>
       </c>
@@ -29176,14 +29875,16 @@
         <v>923</v>
       </c>
       <c r="AL128" s="1" t="s">
-        <v>2774</v>
-      </c>
+        <v>2765</v>
+      </c>
+      <c r="AN128" s="1"/>
       <c r="AO128" s="1">
         <v>0</v>
       </c>
       <c r="AP128" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ128" s="1"/>
       <c r="AR128" s="1">
         <v>16</v>
       </c>
@@ -29205,6 +29906,8 @@
       <c r="AX128" s="1">
         <v>37.5</v>
       </c>
+      <c r="AY128" s="1"/>
+      <c r="AZ128" s="1"/>
       <c r="BA128" s="1" t="s">
         <v>49</v>
       </c>
@@ -29319,14 +30022,16 @@
         <v>923</v>
       </c>
       <c r="AL129" s="1" t="s">
-        <v>2774</v>
-      </c>
+        <v>2765</v>
+      </c>
+      <c r="AN129" s="1"/>
       <c r="AO129" s="1">
         <v>0</v>
       </c>
       <c r="AP129" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ129" s="1"/>
       <c r="AR129" s="1">
         <v>151</v>
       </c>
@@ -29348,6 +30053,8 @@
       <c r="AX129" s="1">
         <v>33</v>
       </c>
+      <c r="AY129" s="1"/>
+      <c r="AZ129" s="1"/>
       <c r="BA129" s="1" t="s">
         <v>49</v>
       </c>
@@ -29458,6 +30165,8 @@
       <c r="AJ130" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AK130" s="1"/>
+      <c r="AN130" s="1"/>
       <c r="AO130" s="1">
         <v>1</v>
       </c>
@@ -29488,6 +30197,8 @@
       <c r="AX130" s="1">
         <v>35</v>
       </c>
+      <c r="AY130" s="1"/>
+      <c r="AZ130" s="1"/>
       <c r="BA130" s="1" t="s">
         <v>49</v>
       </c>
@@ -29602,14 +30313,16 @@
         <v>2106</v>
       </c>
       <c r="AL131" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN131" s="1"/>
       <c r="AO131" s="1">
         <v>0</v>
       </c>
       <c r="AP131" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ131" s="1"/>
       <c r="AR131" s="1">
         <v>476</v>
       </c>
@@ -29631,6 +30344,8 @@
       <c r="AX131" s="1">
         <v>37</v>
       </c>
+      <c r="AY131" s="1"/>
+      <c r="AZ131" s="1"/>
       <c r="BA131" s="1" t="s">
         <v>39</v>
       </c>
@@ -29745,14 +30460,16 @@
         <v>2170</v>
       </c>
       <c r="AL132" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN132" s="1"/>
       <c r="AO132" s="1">
         <v>0</v>
       </c>
       <c r="AP132" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ132" s="1"/>
       <c r="AR132" s="1">
         <v>295</v>
       </c>
@@ -29774,6 +30491,8 @@
       <c r="AX132" s="1">
         <v>56.3</v>
       </c>
+      <c r="AY132" s="1"/>
+      <c r="AZ132" s="1"/>
       <c r="BA132" s="1" t="s">
         <v>49</v>
       </c>
@@ -29890,9 +30609,13 @@
       <c r="AJ133" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AK133" s="1"/>
+      <c r="AN133" s="1"/>
       <c r="AO133" s="1">
         <v>0</v>
       </c>
+      <c r="AP133" s="1"/>
+      <c r="AQ133" s="1"/>
       <c r="AR133" s="1">
         <v>12</v>
       </c>
@@ -29902,6 +30625,7 @@
       <c r="AT133" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU133" s="6"/>
       <c r="AV133" s="1" t="s">
         <v>1442</v>
       </c>
@@ -29911,6 +30635,8 @@
       <c r="AX133" s="1">
         <v>16.670000000000002</v>
       </c>
+      <c r="AY133" s="1"/>
+      <c r="AZ133" s="1"/>
       <c r="BA133" s="1" t="s">
         <v>49</v>
       </c>
@@ -30019,7 +30745,7 @@
         <v>2117</v>
       </c>
       <c r="AF134" s="1" t="s">
-        <v>2748</v>
+        <v>2767</v>
       </c>
       <c r="AI134" s="1">
         <v>1</v>
@@ -30033,6 +30759,7 @@
       <c r="AL134" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN134" s="1"/>
       <c r="AO134" s="1">
         <v>1</v>
       </c>
@@ -30069,6 +30796,8 @@
       <c r="AZ134" s="1">
         <v>1.05</v>
       </c>
+      <c r="BA134" s="1"/>
+      <c r="BB134" s="1"/>
       <c r="BC134" s="1">
         <v>1</v>
       </c>
@@ -30171,7 +30900,7 @@
         <v>2125</v>
       </c>
       <c r="AF135" s="1" t="s">
-        <v>2764</v>
+        <v>2758</v>
       </c>
       <c r="AI135" s="1">
         <v>0</v>
@@ -30179,6 +30908,8 @@
       <c r="AJ135" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AK135" s="1"/>
+      <c r="AN135" s="1"/>
       <c r="AO135" s="1">
         <v>1</v>
       </c>
@@ -30209,6 +30940,7 @@
       <c r="AX135" s="1">
         <v>43.26</v>
       </c>
+      <c r="AY135" s="1"/>
       <c r="AZ135" s="1">
         <v>0.56000000000000005</v>
       </c>
@@ -30332,14 +31064,16 @@
         <v>2126</v>
       </c>
       <c r="AL136" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN136" s="1"/>
       <c r="AO136" s="1">
         <v>0</v>
       </c>
       <c r="AP136" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ136" s="1"/>
       <c r="AR136" s="1">
         <v>505</v>
       </c>
@@ -30361,6 +31095,8 @@
       <c r="AX136" s="1">
         <v>66.3</v>
       </c>
+      <c r="AY136" s="1"/>
+      <c r="AZ136" s="1"/>
       <c r="BA136" s="1" t="s">
         <v>1465</v>
       </c>
@@ -30469,7 +31205,7 @@
         <v>2138</v>
       </c>
       <c r="AF137" s="1" t="s">
-        <v>2765</v>
+        <v>2792</v>
       </c>
       <c r="AI137" s="1">
         <v>1</v>
@@ -30481,14 +31217,16 @@
         <v>2138</v>
       </c>
       <c r="AL137" s="1" t="s">
-        <v>2790</v>
-      </c>
+        <v>2781</v>
+      </c>
+      <c r="AN137" s="1"/>
       <c r="AO137" s="1">
         <v>0</v>
       </c>
       <c r="AP137" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ137" s="1"/>
       <c r="AR137" s="1">
         <v>195</v>
       </c>
@@ -30510,6 +31248,10 @@
       <c r="AX137" s="1">
         <v>5</v>
       </c>
+      <c r="AY137" s="1"/>
+      <c r="AZ137" s="1"/>
+      <c r="BA137" s="1"/>
+      <c r="BB137" s="1"/>
       <c r="BC137" s="1">
         <v>2</v>
       </c>
@@ -30587,6 +31329,9 @@
       <c r="W138" s="1" t="s">
         <v>886</v>
       </c>
+      <c r="X138" s="1"/>
+      <c r="Y138" s="1"/>
+      <c r="Z138" s="1"/>
       <c r="AA138" s="1" t="s">
         <v>39</v>
       </c>
@@ -30611,12 +31356,14 @@
       <c r="AL138" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN138" s="1"/>
       <c r="AO138" s="1">
         <v>0</v>
       </c>
       <c r="AP138" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ138" s="1"/>
       <c r="AR138" s="1">
         <v>189</v>
       </c>
@@ -30638,6 +31385,8 @@
       <c r="AX138" s="1">
         <v>29.1</v>
       </c>
+      <c r="AY138" s="1"/>
+      <c r="AZ138" s="1"/>
       <c r="BA138" s="1" t="s">
         <v>1482</v>
       </c>
@@ -30746,7 +31495,7 @@
         <v>2127</v>
       </c>
       <c r="AF139" s="1" t="s">
-        <v>2766</v>
+        <v>2759</v>
       </c>
       <c r="AI139" s="1">
         <v>1</v>
@@ -30758,14 +31507,16 @@
         <v>2721</v>
       </c>
       <c r="AL139" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN139" s="1"/>
       <c r="AO139" s="1">
         <v>0</v>
       </c>
       <c r="AP139" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ139" s="1"/>
       <c r="AR139" s="1">
         <v>556</v>
       </c>
@@ -30775,9 +31526,14 @@
       <c r="AT139" s="1" t="s">
         <v>1491</v>
       </c>
+      <c r="AU139" s="6"/>
       <c r="AV139" s="1" t="s">
         <v>1492</v>
       </c>
+      <c r="AW139" s="1"/>
+      <c r="AX139" s="1"/>
+      <c r="AY139" s="1"/>
+      <c r="AZ139" s="1"/>
       <c r="BA139" s="1" t="s">
         <v>39</v>
       </c>
@@ -30886,7 +31642,7 @@
         <v>2128</v>
       </c>
       <c r="AF140" s="1" t="s">
-        <v>2759</v>
+        <v>2754</v>
       </c>
       <c r="AI140" s="1">
         <v>1</v>
@@ -30898,14 +31654,16 @@
         <v>940</v>
       </c>
       <c r="AL140" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN140" s="1"/>
       <c r="AO140" s="1">
         <v>0</v>
       </c>
       <c r="AP140" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ140" s="1"/>
       <c r="AR140" s="1">
         <v>353</v>
       </c>
@@ -30927,6 +31685,8 @@
       <c r="AX140" s="1">
         <v>43.1</v>
       </c>
+      <c r="AY140" s="1"/>
+      <c r="AZ140" s="1"/>
       <c r="BA140" s="1" t="s">
         <v>39</v>
       </c>
@@ -31035,7 +31795,7 @@
         <v>2128</v>
       </c>
       <c r="AF141" s="1" t="s">
-        <v>2759</v>
+        <v>2754</v>
       </c>
       <c r="AI141" s="1">
         <v>1</v>
@@ -31047,14 +31807,16 @@
         <v>940</v>
       </c>
       <c r="AL141" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN141" s="1"/>
       <c r="AO141" s="1">
         <v>0</v>
       </c>
       <c r="AP141" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ141" s="1"/>
       <c r="AR141" s="1">
         <v>329</v>
       </c>
@@ -31076,6 +31838,8 @@
       <c r="AX141" s="1">
         <v>45.6</v>
       </c>
+      <c r="AY141" s="1"/>
+      <c r="AZ141" s="1"/>
       <c r="BA141" s="1" t="s">
         <v>39</v>
       </c>
@@ -31184,7 +31948,7 @@
         <v>2128</v>
       </c>
       <c r="AF142" s="1" t="s">
-        <v>2759</v>
+        <v>2754</v>
       </c>
       <c r="AI142" s="1">
         <v>1</v>
@@ -31196,14 +31960,16 @@
         <v>940</v>
       </c>
       <c r="AL142" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN142" s="1"/>
       <c r="AO142" s="1">
         <v>0</v>
       </c>
       <c r="AP142" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ142" s="1"/>
       <c r="AR142" s="1">
         <v>326</v>
       </c>
@@ -31225,6 +31991,8 @@
       <c r="AX142" s="1">
         <v>44.2</v>
       </c>
+      <c r="AY142" s="1"/>
+      <c r="AZ142" s="1"/>
       <c r="BA142" s="1" t="s">
         <v>39</v>
       </c>
@@ -31341,12 +32109,14 @@
       <c r="AL143" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN143" s="1"/>
       <c r="AO143" s="1">
         <v>0</v>
       </c>
       <c r="AP143" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ143" s="1"/>
       <c r="AR143" s="1">
         <v>187</v>
       </c>
@@ -31368,6 +32138,8 @@
       <c r="AX143" s="1">
         <v>36</v>
       </c>
+      <c r="AY143" s="1"/>
+      <c r="AZ143" s="1"/>
       <c r="BA143" s="1" t="s">
         <v>39</v>
       </c>
@@ -31488,14 +32260,16 @@
         <v>2148</v>
       </c>
       <c r="AL144" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN144" s="1"/>
       <c r="AO144" s="1">
         <v>0</v>
       </c>
       <c r="AP144" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ144" s="1"/>
       <c r="AR144" s="1">
         <v>422</v>
       </c>
@@ -31517,6 +32291,8 @@
       <c r="AX144" s="1">
         <v>66.599999999999994</v>
       </c>
+      <c r="AY144" s="1"/>
+      <c r="AZ144" s="1"/>
       <c r="BA144" s="1" t="s">
         <v>49</v>
       </c>
@@ -31579,9 +32355,11 @@
       <c r="P145" s="1">
         <v>1</v>
       </c>
+      <c r="Q145" s="1"/>
       <c r="R145" s="1">
         <v>0</v>
       </c>
+      <c r="S145" s="1"/>
       <c r="T145" s="1">
         <v>0</v>
       </c>
@@ -31624,6 +32402,9 @@
       <c r="AI145" s="1">
         <v>0</v>
       </c>
+      <c r="AJ145" s="1"/>
+      <c r="AK145" s="1"/>
+      <c r="AN145" s="1"/>
       <c r="AO145" s="1">
         <v>1</v>
       </c>
@@ -31654,6 +32435,8 @@
       <c r="AX145" s="1">
         <v>59.7</v>
       </c>
+      <c r="AY145" s="1"/>
+      <c r="AZ145" s="1"/>
       <c r="BA145" s="1" t="s">
         <v>1525</v>
       </c>
@@ -31768,14 +32551,16 @@
         <v>915</v>
       </c>
       <c r="AL146" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN146" s="1"/>
       <c r="AO146" s="1">
         <v>0</v>
       </c>
       <c r="AP146" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ146" s="1"/>
       <c r="AR146" s="1">
         <v>126</v>
       </c>
@@ -31797,6 +32582,8 @@
       <c r="AX146" s="1">
         <v>37.299999999999997</v>
       </c>
+      <c r="AY146" s="1"/>
+      <c r="AZ146" s="1"/>
       <c r="BA146" s="1" t="s">
         <v>39</v>
       </c>
@@ -31911,14 +32698,16 @@
         <v>2722</v>
       </c>
       <c r="AL147" s="1" t="s">
-        <v>2789</v>
-      </c>
+        <v>2780</v>
+      </c>
+      <c r="AN147" s="1"/>
       <c r="AO147" s="1">
         <v>0</v>
       </c>
       <c r="AP147" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ147" s="1"/>
       <c r="AR147" s="1">
         <v>1200</v>
       </c>
@@ -31940,6 +32729,8 @@
       <c r="AX147" s="1">
         <v>54.83</v>
       </c>
+      <c r="AY147" s="1"/>
+      <c r="AZ147" s="1"/>
       <c r="BA147" s="1" t="s">
         <v>39</v>
       </c>
@@ -32048,7 +32839,7 @@
         <v>2116</v>
       </c>
       <c r="AF148" s="1" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="AI148" s="1">
         <v>1</v>
@@ -32062,12 +32853,14 @@
       <c r="AL148" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN148" s="1"/>
       <c r="AO148" s="1">
         <v>0</v>
       </c>
       <c r="AP148" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ148" s="1"/>
       <c r="AR148" s="1">
         <v>275</v>
       </c>
@@ -32089,6 +32882,8 @@
       <c r="AX148" s="1">
         <v>39</v>
       </c>
+      <c r="AY148" s="1"/>
+      <c r="AZ148" s="1"/>
       <c r="BA148" s="1" t="s">
         <v>1546</v>
       </c>
@@ -32197,7 +32992,7 @@
         <v>2140</v>
       </c>
       <c r="AF149" s="1" t="s">
-        <v>2767</v>
+        <v>2760</v>
       </c>
       <c r="AI149" s="1">
         <v>1</v>
@@ -32209,14 +33004,16 @@
         <v>2729</v>
       </c>
       <c r="AL149" s="1" t="s">
-        <v>2791</v>
-      </c>
+        <v>2782</v>
+      </c>
+      <c r="AN149" s="1"/>
       <c r="AO149" s="1">
         <v>0</v>
       </c>
       <c r="AP149" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ149" s="1"/>
       <c r="AR149" s="1">
         <v>44</v>
       </c>
@@ -32226,6 +33023,7 @@
       <c r="AT149" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU149" s="6"/>
       <c r="AV149" s="1" t="s">
         <v>1551</v>
       </c>
@@ -32235,6 +33033,8 @@
       <c r="AX149" s="1">
         <v>23</v>
       </c>
+      <c r="AY149" s="1"/>
+      <c r="AZ149" s="1"/>
       <c r="BA149" s="1" t="s">
         <v>39</v>
       </c>
@@ -32349,11 +33149,14 @@
         <v>2194</v>
       </c>
       <c r="AL150" s="1" t="s">
-        <v>2792</v>
-      </c>
+        <v>2783</v>
+      </c>
+      <c r="AN150" s="1"/>
       <c r="AO150" s="1">
         <v>0</v>
       </c>
+      <c r="AP150" s="1"/>
+      <c r="AQ150" s="1"/>
       <c r="AR150" s="1">
         <v>223</v>
       </c>
@@ -32375,6 +33178,8 @@
       <c r="AX150" s="1">
         <v>81.2</v>
       </c>
+      <c r="AY150" s="1"/>
+      <c r="AZ150" s="1"/>
       <c r="BA150" s="1" t="s">
         <v>49</v>
       </c>
@@ -32491,12 +33296,14 @@
       <c r="AL151" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN151" s="1"/>
       <c r="AO151" s="1">
         <v>0</v>
       </c>
       <c r="AP151" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ151" s="1"/>
       <c r="AR151" s="1">
         <v>194</v>
       </c>
@@ -32518,6 +33325,8 @@
       <c r="AX151" s="1">
         <v>34.5</v>
       </c>
+      <c r="AY151" s="1"/>
+      <c r="AZ151" s="1"/>
       <c r="BA151" s="1" t="s">
         <v>157</v>
       </c>
@@ -32634,12 +33443,14 @@
       <c r="AL152" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN152" s="1"/>
       <c r="AO152" s="1">
         <v>0</v>
       </c>
       <c r="AP152" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ152" s="1"/>
       <c r="AR152" s="1">
         <v>415</v>
       </c>
@@ -32661,6 +33472,8 @@
       <c r="AX152" s="1">
         <v>40</v>
       </c>
+      <c r="AY152" s="1"/>
+      <c r="AZ152" s="1"/>
       <c r="BA152" s="1" t="s">
         <v>393</v>
       </c>
@@ -32781,14 +33594,16 @@
         <v>2195</v>
       </c>
       <c r="AL153" s="1" t="s">
-        <v>2789</v>
-      </c>
+        <v>2780</v>
+      </c>
+      <c r="AN153" s="1"/>
       <c r="AO153" s="1">
         <v>0</v>
       </c>
       <c r="AP153" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ153" s="1"/>
       <c r="AR153" s="1">
         <v>67</v>
       </c>
@@ -32810,6 +33625,8 @@
       <c r="AX153" s="1">
         <v>56.72</v>
       </c>
+      <c r="AY153" s="1"/>
+      <c r="AZ153" s="1"/>
       <c r="BA153" s="1" t="s">
         <v>2237</v>
       </c>
@@ -32924,14 +33741,16 @@
         <v>2197</v>
       </c>
       <c r="AL154" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN154" s="1"/>
       <c r="AO154" s="1">
         <v>0</v>
       </c>
       <c r="AP154" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ154" s="1"/>
       <c r="AR154" s="1">
         <v>265</v>
       </c>
@@ -32953,6 +33772,10 @@
       <c r="AX154" s="1">
         <v>47</v>
       </c>
+      <c r="AY154" s="1"/>
+      <c r="AZ154" s="1"/>
+      <c r="BA154" s="1"/>
+      <c r="BB154" s="1"/>
       <c r="BC154" s="1">
         <v>0</v>
       </c>
@@ -33063,12 +33886,14 @@
       <c r="AL155" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN155" s="1"/>
       <c r="AO155" s="1">
         <v>0</v>
       </c>
       <c r="AP155" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ155" s="1"/>
       <c r="AR155" s="1">
         <v>276</v>
       </c>
@@ -33084,6 +33909,12 @@
       <c r="AV155" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW155" s="1"/>
+      <c r="AX155" s="1"/>
+      <c r="AY155" s="1"/>
+      <c r="AZ155" s="1"/>
+      <c r="BA155" s="1"/>
+      <c r="BB155" s="1"/>
       <c r="BC155" s="1">
         <v>1</v>
       </c>
@@ -33198,14 +34029,16 @@
         <v>2725</v>
       </c>
       <c r="AL156" s="1" t="s">
-        <v>2787</v>
-      </c>
+        <v>2778</v>
+      </c>
+      <c r="AN156" s="1"/>
       <c r="AO156" s="1">
         <v>0</v>
       </c>
       <c r="AP156" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ156" s="1"/>
       <c r="AR156" s="1">
         <v>386</v>
       </c>
@@ -33215,6 +34048,7 @@
       <c r="AT156" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU156" s="6"/>
       <c r="AV156" s="1" t="s">
         <v>1603</v>
       </c>
@@ -33224,6 +34058,8 @@
       <c r="AX156" s="1">
         <v>38.340000000000003</v>
       </c>
+      <c r="AY156" s="1"/>
+      <c r="AZ156" s="1"/>
       <c r="BA156" s="1" t="s">
         <v>49</v>
       </c>
@@ -33338,14 +34174,16 @@
         <v>1608</v>
       </c>
       <c r="AL157" s="1" t="s">
-        <v>2793</v>
-      </c>
+        <v>2784</v>
+      </c>
+      <c r="AN157" s="1"/>
       <c r="AO157" s="1">
         <v>0</v>
       </c>
       <c r="AP157" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ157" s="1"/>
       <c r="AR157" s="1">
         <v>1663</v>
       </c>
@@ -33367,6 +34205,8 @@
       <c r="AX157" s="1">
         <v>46.4</v>
       </c>
+      <c r="AY157" s="1"/>
+      <c r="AZ157" s="1"/>
       <c r="BA157" s="1" t="s">
         <v>39</v>
       </c>
@@ -33483,12 +34323,15 @@
       <c r="AJ158" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AK158" s="1"/>
+      <c r="AN158" s="1"/>
       <c r="AO158" s="1">
         <v>0</v>
       </c>
       <c r="AP158" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ158" s="1"/>
       <c r="AR158" s="1">
         <v>197</v>
       </c>
@@ -33510,6 +34353,8 @@
       <c r="AX158" s="1">
         <v>68.53</v>
       </c>
+      <c r="AY158" s="1"/>
+      <c r="AZ158" s="1"/>
       <c r="BA158" s="1" t="s">
         <v>39</v>
       </c>
@@ -33624,14 +34469,16 @@
         <v>2198</v>
       </c>
       <c r="AL159" s="1" t="s">
-        <v>2778</v>
-      </c>
+        <v>2769</v>
+      </c>
+      <c r="AN159" s="1"/>
       <c r="AO159" s="1">
         <v>0</v>
       </c>
       <c r="AP159" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ159" s="1"/>
       <c r="AR159" s="1">
         <v>283</v>
       </c>
@@ -33653,6 +34500,8 @@
       <c r="AX159" s="1">
         <v>36</v>
       </c>
+      <c r="AY159" s="1"/>
+      <c r="AZ159" s="1"/>
       <c r="BA159" s="1" t="s">
         <v>157</v>
       </c>
@@ -33742,9 +34591,11 @@
       <c r="Y160" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="Z160" s="1"/>
       <c r="AA160" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AB160" s="1"/>
       <c r="AC160" s="1">
         <v>1</v>
       </c>
@@ -33755,7 +34606,7 @@
         <v>1691</v>
       </c>
       <c r="AF160" s="1" t="s">
-        <v>2752</v>
+        <v>2747</v>
       </c>
       <c r="AI160" s="1">
         <v>1</v>
@@ -33769,9 +34620,12 @@
       <c r="AL160" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN160" s="1"/>
       <c r="AO160" s="1">
         <v>0</v>
       </c>
+      <c r="AP160" s="1"/>
+      <c r="AQ160" s="1"/>
       <c r="AR160" s="1">
         <v>111</v>
       </c>
@@ -33793,6 +34647,8 @@
       <c r="AX160" s="1">
         <v>42</v>
       </c>
+      <c r="AY160" s="1"/>
+      <c r="AZ160" s="1"/>
       <c r="BA160" s="1" t="s">
         <v>49</v>
       </c>
@@ -33882,12 +34738,15 @@
       <c r="Y161" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="Z161" s="1"/>
       <c r="AA161" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AB161" s="1"/>
       <c r="AC161" s="1">
         <v>0</v>
       </c>
+      <c r="AD161" s="1"/>
       <c r="AI161" s="1">
         <v>1</v>
       </c>
@@ -33898,14 +34757,16 @@
         <v>1638</v>
       </c>
       <c r="AL161" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN161" s="1"/>
       <c r="AO161" s="1">
         <v>0</v>
       </c>
       <c r="AP161" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ161" s="1"/>
       <c r="AR161" s="1">
         <v>235</v>
       </c>
@@ -33927,6 +34788,8 @@
       <c r="AX161" s="1">
         <v>29.4</v>
       </c>
+      <c r="AY161" s="1"/>
+      <c r="AZ161" s="1"/>
       <c r="BA161" s="1" t="s">
         <v>1641</v>
       </c>
@@ -34041,14 +34904,16 @@
         <v>2199</v>
       </c>
       <c r="AL162" s="1" t="s">
-        <v>2772</v>
-      </c>
+        <v>2763</v>
+      </c>
+      <c r="AN162" s="1"/>
       <c r="AO162" s="1">
         <v>0</v>
       </c>
       <c r="AP162" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ162" s="1"/>
       <c r="AR162" s="1">
         <v>302</v>
       </c>
@@ -34070,6 +34935,8 @@
       <c r="AX162" s="1">
         <v>98</v>
       </c>
+      <c r="AY162" s="1"/>
+      <c r="AZ162" s="1"/>
       <c r="BA162" s="1" t="s">
         <v>1650</v>
       </c>
@@ -34184,14 +35051,16 @@
         <v>923</v>
       </c>
       <c r="AL163" s="1" t="s">
-        <v>2774</v>
-      </c>
+        <v>2765</v>
+      </c>
+      <c r="AN163" s="1"/>
       <c r="AO163" s="1">
         <v>0</v>
       </c>
       <c r="AP163" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ163" s="1"/>
       <c r="AR163" s="1">
         <v>49</v>
       </c>
@@ -34213,6 +35082,8 @@
       <c r="AX163" s="1">
         <v>59</v>
       </c>
+      <c r="AY163" s="1"/>
+      <c r="AZ163" s="1"/>
       <c r="BA163" s="1" t="s">
         <v>1656</v>
       </c>
@@ -34278,6 +35149,9 @@
       <c r="Q164" s="1" t="s">
         <v>822</v>
       </c>
+      <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
+      <c r="T164" s="1"/>
       <c r="U164" s="1">
         <v>0</v>
       </c>
@@ -34314,12 +35188,15 @@
       <c r="AJ164" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AK164" s="1"/>
+      <c r="AN164" s="1"/>
       <c r="AO164" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AP164" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ164" s="1"/>
       <c r="AR164" s="1">
         <v>32</v>
       </c>
@@ -34341,6 +35218,8 @@
       <c r="AX164" s="1">
         <v>38</v>
       </c>
+      <c r="AY164" s="1"/>
+      <c r="AZ164" s="1"/>
       <c r="BA164" s="1" t="s">
         <v>1660</v>
       </c>
@@ -34350,6 +35229,7 @@
       <c r="BC164" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="BD164" s="1"/>
     </row>
     <row r="165" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
@@ -34452,14 +35332,16 @@
         <v>940</v>
       </c>
       <c r="AL165" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN165" s="1"/>
       <c r="AO165" s="1">
         <v>0</v>
       </c>
       <c r="AP165" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ165" s="1"/>
       <c r="AR165" s="1">
         <v>346</v>
       </c>
@@ -34481,6 +35363,8 @@
       <c r="AX165" s="1">
         <v>73.7</v>
       </c>
+      <c r="AY165" s="1"/>
+      <c r="AZ165" s="1"/>
       <c r="BA165" s="1" t="s">
         <v>49</v>
       </c>
@@ -34595,14 +35479,16 @@
         <v>2148</v>
       </c>
       <c r="AL166" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN166" s="1"/>
       <c r="AO166" s="1">
         <v>0</v>
       </c>
       <c r="AP166" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ166" s="1"/>
       <c r="AR166" s="1">
         <v>340</v>
       </c>
@@ -34612,6 +35498,7 @@
       <c r="AT166" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU166" s="6"/>
       <c r="AV166" s="1" t="s">
         <v>1675</v>
       </c>
@@ -34621,6 +35508,8 @@
       <c r="AX166" s="1">
         <v>58.8</v>
       </c>
+      <c r="AY166" s="1"/>
+      <c r="AZ166" s="1"/>
       <c r="BA166" s="1" t="s">
         <v>49</v>
       </c>
@@ -34729,7 +35618,7 @@
         <v>2129</v>
       </c>
       <c r="AF167" s="1" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="AI167" s="1">
         <v>1</v>
@@ -34741,14 +35630,16 @@
         <v>2148</v>
       </c>
       <c r="AL167" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN167" s="1"/>
       <c r="AO167" s="1">
         <v>0</v>
       </c>
       <c r="AP167" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ167" s="1"/>
       <c r="AR167" s="1">
         <v>241</v>
       </c>
@@ -34770,6 +35661,8 @@
       <c r="AX167" s="1">
         <v>50.2</v>
       </c>
+      <c r="AY167" s="1"/>
+      <c r="AZ167" s="1"/>
       <c r="BA167" s="1" t="s">
         <v>49</v>
       </c>
@@ -34892,6 +35785,7 @@
       <c r="AL168" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN168" s="1"/>
       <c r="AO168" s="1">
         <v>1</v>
       </c>
@@ -34922,6 +35816,8 @@
       <c r="AX168" s="1">
         <v>57.9</v>
       </c>
+      <c r="AY168" s="1"/>
+      <c r="AZ168" s="1"/>
       <c r="BA168" s="1" t="s">
         <v>39</v>
       </c>
@@ -34987,6 +35883,9 @@
       <c r="Q169" s="1" t="s">
         <v>822</v>
       </c>
+      <c r="R169" s="1"/>
+      <c r="S169" s="1"/>
+      <c r="T169" s="1"/>
       <c r="U169" s="1">
         <v>0</v>
       </c>
@@ -35023,12 +35922,15 @@
       <c r="AJ169" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AK169" s="1"/>
+      <c r="AN169" s="1"/>
       <c r="AO169" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AP169" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ169" s="1"/>
       <c r="AR169" s="1">
         <v>209</v>
       </c>
@@ -35050,12 +35952,16 @@
       <c r="AX169" s="1">
         <v>57.9</v>
       </c>
+      <c r="AY169" s="1"/>
+      <c r="AZ169" s="1"/>
       <c r="BA169" s="1" t="s">
         <v>39</v>
       </c>
       <c r="BB169" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="BC169" s="1"/>
+      <c r="BD169" s="1"/>
     </row>
     <row r="170" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
@@ -35127,9 +36033,13 @@
       <c r="W170" s="1">
         <v>141</v>
       </c>
+      <c r="X170" s="1"/>
+      <c r="Y170" s="1"/>
+      <c r="Z170" s="1"/>
       <c r="AA170" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AB170" s="1"/>
       <c r="AC170" s="1">
         <v>0</v>
       </c>
@@ -35146,14 +36056,16 @@
         <v>2152</v>
       </c>
       <c r="AL170" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN170" s="1"/>
       <c r="AO170" s="1">
         <v>0</v>
       </c>
       <c r="AP170" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ170" s="1"/>
       <c r="AR170" s="1">
         <v>454</v>
       </c>
@@ -35175,6 +36087,8 @@
       <c r="AX170" s="1">
         <v>78.599999999999994</v>
       </c>
+      <c r="AY170" s="1"/>
+      <c r="AZ170" s="1"/>
       <c r="BA170" s="1" t="s">
         <v>1704</v>
       </c>
@@ -35283,7 +36197,7 @@
         <v>2141</v>
       </c>
       <c r="AF171" s="1" t="s">
-        <v>2768</v>
+        <v>2793</v>
       </c>
       <c r="AI171" s="1">
         <v>1</v>
@@ -35295,14 +36209,16 @@
         <v>2728</v>
       </c>
       <c r="AL171" s="1" t="s">
-        <v>2792</v>
-      </c>
+        <v>2783</v>
+      </c>
+      <c r="AN171" s="1"/>
       <c r="AO171" s="1">
         <v>0</v>
       </c>
       <c r="AP171" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ171" s="1"/>
       <c r="AR171" s="1">
         <v>244</v>
       </c>
@@ -35312,9 +36228,14 @@
       <c r="AT171" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AU171" s="6"/>
       <c r="AV171" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AW171" s="1"/>
+      <c r="AX171" s="1"/>
+      <c r="AY171" s="1"/>
+      <c r="AZ171" s="1"/>
       <c r="BA171" s="1" t="s">
         <v>49</v>
       </c>
@@ -35371,6 +36292,7 @@
       <c r="N172" s="1" t="s">
         <v>1720</v>
       </c>
+      <c r="O172" s="1"/>
       <c r="P172" s="1">
         <v>1</v>
       </c>
@@ -35426,14 +36348,16 @@
         <v>940</v>
       </c>
       <c r="AL172" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN172" s="1"/>
       <c r="AO172" s="1">
         <v>0</v>
       </c>
       <c r="AP172" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ172" s="1"/>
       <c r="AR172" s="1">
         <v>112</v>
       </c>
@@ -35455,6 +36379,8 @@
       <c r="AX172" s="1">
         <v>61.3</v>
       </c>
+      <c r="AY172" s="1"/>
+      <c r="AZ172" s="1"/>
       <c r="BA172" s="1" t="s">
         <v>39</v>
       </c>
@@ -35569,14 +36495,16 @@
         <v>2200</v>
       </c>
       <c r="AL173" s="1" t="s">
-        <v>2794</v>
-      </c>
+        <v>2785</v>
+      </c>
+      <c r="AN173" s="1"/>
       <c r="AO173" s="1">
         <v>0</v>
       </c>
       <c r="AP173" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ173" s="1"/>
       <c r="AR173" s="1">
         <v>283</v>
       </c>
@@ -35598,6 +36526,8 @@
       <c r="AX173" s="1">
         <v>42.1</v>
       </c>
+      <c r="AY173" s="1"/>
+      <c r="AZ173" s="1"/>
       <c r="BA173" s="1" t="s">
         <v>157</v>
       </c>
@@ -35607,6 +36537,7 @@
       <c r="BC173" s="1">
         <v>0</v>
       </c>
+      <c r="BD173" s="1"/>
     </row>
     <row r="174" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
@@ -35703,7 +36634,7 @@
         <v>2134</v>
       </c>
       <c r="AF174" s="1" t="s">
-        <v>2760</v>
+        <v>2779</v>
       </c>
       <c r="AI174" s="1">
         <v>1</v>
@@ -35717,12 +36648,14 @@
       <c r="AL174" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN174" s="1"/>
       <c r="AO174" s="1">
         <v>0</v>
       </c>
       <c r="AP174" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ174" s="1"/>
       <c r="AR174" s="1">
         <v>1583</v>
       </c>
@@ -35744,6 +36677,8 @@
       <c r="AX174" s="1">
         <v>34</v>
       </c>
+      <c r="AY174" s="1"/>
+      <c r="AZ174" s="1"/>
       <c r="BA174" s="1" t="s">
         <v>157</v>
       </c>
@@ -35858,14 +36793,16 @@
         <v>2148</v>
       </c>
       <c r="AL175" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN175" s="1"/>
       <c r="AO175" s="1">
         <v>0</v>
       </c>
       <c r="AP175" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ175" s="1"/>
       <c r="AR175" s="1">
         <v>485</v>
       </c>
@@ -35887,6 +36824,8 @@
       <c r="AX175" s="1">
         <v>48</v>
       </c>
+      <c r="AY175" s="1"/>
+      <c r="AZ175" s="1"/>
       <c r="BA175" s="1" t="s">
         <v>49</v>
       </c>
@@ -36003,6 +36942,8 @@
       <c r="AJ176" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AK176" s="1"/>
+      <c r="AN176" s="1"/>
       <c r="AO176" s="1">
         <v>1</v>
       </c>
@@ -36033,6 +36974,8 @@
       <c r="AX176" s="1">
         <v>50</v>
       </c>
+      <c r="AY176" s="1"/>
+      <c r="AZ176" s="1"/>
       <c r="BA176" s="1" t="s">
         <v>39</v>
       </c>
@@ -36147,14 +37090,16 @@
         <v>2154</v>
       </c>
       <c r="AL177" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN177" s="1"/>
       <c r="AO177" s="1">
         <v>0</v>
       </c>
       <c r="AP177" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ177" s="1"/>
       <c r="AR177" s="1">
         <v>200</v>
       </c>
@@ -36167,6 +37112,11 @@
       <c r="AU177" s="6">
         <v>17.5</v>
       </c>
+      <c r="AV177" s="1"/>
+      <c r="AW177" s="1"/>
+      <c r="AX177" s="1"/>
+      <c r="AY177" s="1"/>
+      <c r="AZ177" s="1"/>
       <c r="BA177" s="1" t="s">
         <v>49</v>
       </c>
@@ -36281,14 +37231,16 @@
         <v>940</v>
       </c>
       <c r="AL178" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN178" s="1"/>
       <c r="AO178" s="1">
         <v>0</v>
       </c>
       <c r="AP178" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ178" s="1"/>
       <c r="AR178" s="1">
         <v>60</v>
       </c>
@@ -36310,6 +37262,8 @@
       <c r="AX178" s="1">
         <v>48.33</v>
       </c>
+      <c r="AY178" s="1"/>
+      <c r="AZ178" s="1"/>
       <c r="BA178" s="1" t="s">
         <v>49</v>
       </c>
@@ -36424,14 +37378,16 @@
         <v>1774</v>
       </c>
       <c r="AL179" s="1" t="s">
-        <v>2795</v>
-      </c>
+        <v>2786</v>
+      </c>
+      <c r="AN179" s="1"/>
       <c r="AO179" s="1">
         <v>0</v>
       </c>
       <c r="AP179" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ179" s="1"/>
       <c r="AR179" s="1">
         <v>231</v>
       </c>
@@ -36453,6 +37409,10 @@
       <c r="AX179" s="1">
         <v>47.2</v>
       </c>
+      <c r="AY179" s="1"/>
+      <c r="AZ179" s="1"/>
+      <c r="BA179" s="1"/>
+      <c r="BB179" s="1"/>
       <c r="BC179" s="1">
         <v>1</v>
       </c>
@@ -36563,12 +37523,14 @@
       <c r="AL180" s="1" t="s">
         <v>1738</v>
       </c>
+      <c r="AN180" s="1"/>
       <c r="AO180" s="1">
         <v>0</v>
       </c>
       <c r="AP180" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ180" s="1"/>
       <c r="AR180" s="1">
         <v>204</v>
       </c>
@@ -36590,6 +37552,8 @@
       <c r="AX180" s="1">
         <v>47.5</v>
       </c>
+      <c r="AY180" s="1"/>
+      <c r="AZ180" s="1"/>
       <c r="BA180" s="1" t="s">
         <v>39</v>
       </c>
@@ -36637,6 +37601,7 @@
       <c r="K181" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="L181" s="1"/>
       <c r="M181" s="1" t="s">
         <v>39</v>
       </c>
@@ -36673,6 +37638,7 @@
       <c r="X181" s="1" t="s">
         <v>693</v>
       </c>
+      <c r="Y181" s="1"/>
       <c r="Z181" s="1" t="s">
         <v>39</v>
       </c>
@@ -36700,12 +37666,15 @@
       <c r="AJ181" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AK181" s="1"/>
+      <c r="AN181" s="1"/>
       <c r="AO181" s="1">
         <v>0</v>
       </c>
       <c r="AP181" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ181" s="1"/>
       <c r="AR181" s="1">
         <v>169</v>
       </c>
@@ -36727,6 +37696,8 @@
       <c r="AX181" s="1">
         <v>58</v>
       </c>
+      <c r="AY181" s="1"/>
+      <c r="AZ181" s="1"/>
       <c r="BA181" s="1" t="s">
         <v>49</v>
       </c>
@@ -36813,6 +37784,7 @@
       <c r="X182" s="1" t="s">
         <v>693</v>
       </c>
+      <c r="Y182" s="1"/>
       <c r="Z182" s="1" t="s">
         <v>39</v>
       </c>
@@ -36838,14 +37810,16 @@
         <v>2154</v>
       </c>
       <c r="AL182" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN182" s="1"/>
       <c r="AO182" s="1">
         <v>0</v>
       </c>
       <c r="AP182" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ182" s="1"/>
       <c r="AR182" s="1">
         <v>169</v>
       </c>
@@ -36867,6 +37841,8 @@
       <c r="AX182" s="1">
         <v>58</v>
       </c>
+      <c r="AY182" s="1"/>
+      <c r="AZ182" s="1"/>
       <c r="BA182" s="1" t="s">
         <v>49</v>
       </c>
@@ -36975,7 +37951,7 @@
         <v>2143</v>
       </c>
       <c r="AF183" s="1" t="s">
-        <v>2769</v>
+        <v>2794</v>
       </c>
       <c r="AI183" s="1">
         <v>1</v>
@@ -36987,14 +37963,16 @@
         <v>2202</v>
       </c>
       <c r="AL183" s="1" t="s">
-        <v>2778</v>
-      </c>
+        <v>2769</v>
+      </c>
+      <c r="AN183" s="1"/>
       <c r="AO183" s="1">
         <v>0</v>
       </c>
       <c r="AP183" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ183" s="1"/>
       <c r="AR183" s="1">
         <v>222</v>
       </c>
@@ -37016,6 +37994,8 @@
       <c r="AX183" s="1">
         <v>55.8</v>
       </c>
+      <c r="AY183" s="1"/>
+      <c r="AZ183" s="1"/>
       <c r="BA183" s="1" t="s">
         <v>510</v>
       </c>
@@ -37130,14 +38110,16 @@
         <v>2720</v>
       </c>
       <c r="AL184" s="1" t="s">
-        <v>2776</v>
-      </c>
+        <v>2767</v>
+      </c>
+      <c r="AN184" s="1"/>
       <c r="AO184" s="1">
         <v>0</v>
       </c>
       <c r="AP184" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ184" s="1"/>
       <c r="AR184" s="1">
         <v>162</v>
       </c>
@@ -37159,6 +38141,8 @@
       <c r="AX184" s="1">
         <v>24.1</v>
       </c>
+      <c r="AY184" s="1"/>
+      <c r="AZ184" s="1"/>
       <c r="BA184" s="1" t="s">
         <v>157</v>
       </c>
@@ -37267,7 +38251,7 @@
         <v>2130</v>
       </c>
       <c r="AF185" s="1" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="AI185" s="1">
         <v>1</v>
@@ -37279,8 +38263,9 @@
         <v>2203</v>
       </c>
       <c r="AL185" s="1" t="s">
-        <v>2788</v>
-      </c>
+        <v>2779</v>
+      </c>
+      <c r="AN185" s="1"/>
       <c r="AO185" s="1">
         <v>1</v>
       </c>
@@ -37311,6 +38296,8 @@
       <c r="AX185" s="1">
         <v>57</v>
       </c>
+      <c r="AY185" s="1"/>
+      <c r="AZ185" s="1"/>
       <c r="BA185" s="1" t="s">
         <v>49</v>
       </c>
@@ -37419,7 +38406,7 @@
         <v>1827</v>
       </c>
       <c r="AF186" s="1" t="s">
-        <v>2757</v>
+        <v>2753</v>
       </c>
       <c r="AI186" s="1">
         <v>1</v>
@@ -37431,14 +38418,16 @@
         <v>2154</v>
       </c>
       <c r="AL186" s="1" t="s">
-        <v>2773</v>
-      </c>
+        <v>2764</v>
+      </c>
+      <c r="AN186" s="1"/>
       <c r="AO186" s="1">
         <v>0</v>
       </c>
       <c r="AP186" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ186" s="1"/>
       <c r="AR186" s="1">
         <v>200</v>
       </c>
@@ -37460,6 +38449,8 @@
       <c r="AX186" s="1">
         <v>49.5</v>
       </c>
+      <c r="AY186" s="1"/>
+      <c r="AZ186" s="1"/>
       <c r="BA186" s="1" t="s">
         <v>39</v>
       </c>
@@ -37561,6 +38552,7 @@
       <c r="AC187" s="1">
         <v>0</v>
       </c>
+      <c r="AD187" s="1"/>
       <c r="AI187" s="1">
         <v>1</v>
       </c>
@@ -37571,14 +38563,16 @@
         <v>2204</v>
       </c>
       <c r="AL187" s="1" t="s">
-        <v>2796</v>
-      </c>
+        <v>2787</v>
+      </c>
+      <c r="AN187" s="1"/>
       <c r="AO187" s="1">
         <v>0</v>
       </c>
       <c r="AP187" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ187" s="1"/>
       <c r="AR187" s="1">
         <v>192</v>
       </c>
@@ -37600,6 +38594,8 @@
       <c r="AX187" s="1">
         <v>73.400000000000006</v>
       </c>
+      <c r="AY187" s="1"/>
+      <c r="AZ187" s="1"/>
       <c r="BA187" s="1" t="s">
         <v>49</v>
       </c>
